--- a/words.xlsx
+++ b/words.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ajnafannikertesz/Desktop/Accents /"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95317790-3B7C-F840-8D6E-B06432C2320E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFF3E3A1-F299-DF4A-8544-C782C87FA46A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11700" yWindow="500" windowWidth="16720" windowHeight="16100" xr2:uid="{5A07E4D9-303A-2A46-9902-F74429138E6A}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28420" windowHeight="16100" xr2:uid="{5A07E4D9-303A-2A46-9902-F74429138E6A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1193" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1085" uniqueCount="129">
   <si>
     <t>target</t>
   </si>
@@ -62,9 +62,6 @@
     <t>swordfish</t>
   </si>
   <si>
-    <t>parakeet</t>
-  </si>
-  <si>
     <t>walrus</t>
   </si>
   <si>
@@ -95,9 +92,6 @@
     <t>giraffe</t>
   </si>
   <si>
-    <t>python</t>
-  </si>
-  <si>
     <t>ferret</t>
   </si>
   <si>
@@ -137,9 +131,6 @@
     <t>parasite</t>
   </si>
   <si>
-    <t>newborn</t>
-  </si>
-  <si>
     <t>zebra</t>
   </si>
   <si>
@@ -191,12 +182,6 @@
     <t>donkey</t>
   </si>
   <si>
-    <t>leopard</t>
-  </si>
-  <si>
-    <t>squirrel</t>
-  </si>
-  <si>
     <t>butterfly</t>
   </si>
   <si>
@@ -218,9 +203,6 @@
     <t>goose</t>
   </si>
   <si>
-    <t>cattle</t>
-  </si>
-  <si>
     <t>tiger</t>
   </si>
   <si>
@@ -266,9 +248,6 @@
     <t>corkscrew</t>
   </si>
   <si>
-    <t>thermos</t>
-  </si>
-  <si>
     <t>airstrip</t>
   </si>
   <si>
@@ -284,9 +263,6 @@
     <t>racquetball</t>
   </si>
   <si>
-    <t>skillet</t>
-  </si>
-  <si>
     <t>podium</t>
   </si>
   <si>
@@ -338,9 +314,6 @@
     <t>grapefruit</t>
   </si>
   <si>
-    <t>cupboard</t>
-  </si>
-  <si>
     <t>plaster</t>
   </si>
   <si>
@@ -386,9 +359,6 @@
     <t>toothbrush</t>
   </si>
   <si>
-    <t>cocoa</t>
-  </si>
-  <si>
     <t>playground</t>
   </si>
   <si>
@@ -401,9 +371,6 @@
     <t>makeup</t>
   </si>
   <si>
-    <t>poster</t>
-  </si>
-  <si>
     <t>arrow</t>
   </si>
   <si>
@@ -431,9 +398,6 @@
     <t>butter</t>
   </si>
   <si>
-    <t>vehicle</t>
-  </si>
-  <si>
     <t>wallet</t>
   </si>
   <si>
@@ -455,10 +419,10 @@
     <t>l</t>
   </si>
   <si>
-    <t>words</t>
-  </si>
-  <si>
     <t>words/shellfish_NZ.wav</t>
+  </si>
+  <si>
+    <t>wordfile</t>
   </si>
 </sst>
 </file>
@@ -810,10 +774,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55B0AD16-EF2B-2944-9D6D-95B64702B7F1}">
-  <dimension ref="A1:D397"/>
+  <dimension ref="A1:D361"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView tabSelected="1" topLeftCell="A222" workbookViewId="0">
+      <selection activeCell="H233" sqref="H233"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -832,7 +796,7 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -840,13 +804,13 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="C2" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="D2" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -854,10 +818,10 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="C3" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="D3" t="str">
         <f>_xlfn.CONCAT("words/",A3,"_NZ.wav")</f>
@@ -869,13 +833,13 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="C4" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="D4" t="str">
-        <f t="shared" ref="D4:F68" si="0">_xlfn.CONCAT("words/",A4,"_NZ.wav")</f>
+        <f t="shared" ref="D4:D62" si="0">_xlfn.CONCAT("words/",A4,"_NZ.wav")</f>
         <v>words/antelope_NZ.wav</v>
       </c>
     </row>
@@ -884,10 +848,10 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="C5" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="D5" t="str">
         <f t="shared" si="0"/>
@@ -899,10 +863,10 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="C6" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="D6" t="str">
         <f t="shared" si="0"/>
@@ -914,14 +878,14 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="C7" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="D7" t="str">
         <f t="shared" si="0"/>
-        <v>words/parakeet_NZ.wav</v>
+        <v>words/walrus_NZ.wav</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -929,14 +893,14 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="C8" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="D8" t="str">
         <f t="shared" si="0"/>
-        <v>words/walrus_NZ.wav</v>
+        <v>words/tortoise_NZ.wav</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -944,14 +908,14 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="C9" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="D9" t="str">
         <f t="shared" si="0"/>
-        <v>words/tortoise_NZ.wav</v>
+        <v>words/caterpillar_NZ.wav</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -959,14 +923,14 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="C10" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="D10" t="str">
         <f t="shared" si="0"/>
-        <v>words/caterpillar_NZ.wav</v>
+        <v>words/piranha_NZ.wav</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -974,14 +938,14 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="C11" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="D11" t="str">
         <f t="shared" si="0"/>
-        <v>words/piranha_NZ.wav</v>
+        <v>words/chimpanzee_NZ.wav</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -989,14 +953,14 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="C12" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="D12" t="str">
         <f t="shared" si="0"/>
-        <v>words/chimpanzee_NZ.wav</v>
+        <v>words/gazelle_NZ.wav</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -1004,14 +968,14 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="C13" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="D13" t="str">
         <f t="shared" si="0"/>
-        <v>words/gazelle_NZ.wav</v>
+        <v>words/seagull_NZ.wav</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
@@ -1019,14 +983,14 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="C14" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="D14" t="str">
         <f t="shared" si="0"/>
-        <v>words/seagull_NZ.wav</v>
+        <v>words/catfish_NZ.wav</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
@@ -1034,14 +998,14 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="C15" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="D15" t="str">
         <f t="shared" si="0"/>
-        <v>words/catfish_NZ.wav</v>
+        <v>words/critter_NZ.wav</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
@@ -1049,14 +1013,14 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="C16" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="D16" t="str">
         <f t="shared" si="0"/>
-        <v>words/critter_NZ.wav</v>
+        <v>words/giraffe_NZ.wav</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
@@ -1064,14 +1028,14 @@
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="C17" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="D17" t="str">
         <f t="shared" si="0"/>
-        <v>words/giraffe_NZ.wav</v>
+        <v>words/ferret_NZ.wav</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
@@ -1079,14 +1043,14 @@
         <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="C18" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="D18" t="str">
         <f t="shared" si="0"/>
-        <v>words/python_NZ.wav</v>
+        <v>words/rattlesnake_NZ.wav</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
@@ -1094,14 +1058,14 @@
         <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="C19" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="D19" t="str">
         <f t="shared" si="0"/>
-        <v>words/ferret_NZ.wav</v>
+        <v>words/octopus_NZ.wav</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
@@ -1109,14 +1073,14 @@
         <v>21</v>
       </c>
       <c r="B20" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="C20" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="D20" t="str">
         <f t="shared" si="0"/>
-        <v>words/rattlesnake_NZ.wav</v>
+        <v>words/livestock_NZ.wav</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
@@ -1124,14 +1088,14 @@
         <v>22</v>
       </c>
       <c r="B21" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="C21" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="D21" t="str">
         <f t="shared" si="0"/>
-        <v>words/octopus_NZ.wav</v>
+        <v>words/beetle_NZ.wav</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
@@ -1139,14 +1103,14 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="C22" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="D22" t="str">
         <f t="shared" si="0"/>
-        <v>words/livestock_NZ.wav</v>
+        <v>words/possum_NZ.wav</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
@@ -1154,14 +1118,14 @@
         <v>24</v>
       </c>
       <c r="B23" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="C23" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="D23" t="str">
         <f t="shared" si="0"/>
-        <v>words/beetle_NZ.wav</v>
+        <v>words/rhino_NZ.wav</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
@@ -1169,14 +1133,14 @@
         <v>25</v>
       </c>
       <c r="B24" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="C24" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="D24" t="str">
         <f t="shared" si="0"/>
-        <v>words/possum_NZ.wav</v>
+        <v>words/panda_NZ.wav</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
@@ -1184,14 +1148,14 @@
         <v>26</v>
       </c>
       <c r="B25" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="C25" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="D25" t="str">
         <f t="shared" si="0"/>
-        <v>words/rhino_NZ.wav</v>
+        <v>words/hamster_NZ.wav</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
@@ -1199,14 +1163,14 @@
         <v>27</v>
       </c>
       <c r="B26" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="C26" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="D26" t="str">
         <f t="shared" si="0"/>
-        <v>words/panda_NZ.wav</v>
+        <v>words/crocodile_NZ.wav</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
@@ -1214,14 +1178,14 @@
         <v>28</v>
       </c>
       <c r="B27" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="C27" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="D27" t="str">
-        <f t="shared" si="0"/>
-        <v>words/hamster_NZ.wav</v>
+        <f>_xlfn.CONCAT("words/",A27,"_NZ.wav")</f>
+        <v>words/kangaroo_NZ.wav</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
@@ -1229,14 +1193,14 @@
         <v>29</v>
       </c>
       <c r="B28" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="C28" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="D28" t="str">
         <f t="shared" si="0"/>
-        <v>words/crocodile_NZ.wav</v>
+        <v>words/corral_NZ.wav</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
@@ -1244,14 +1208,14 @@
         <v>30</v>
       </c>
       <c r="B29" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="C29" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="D29" t="str">
-        <f>_xlfn.CONCAT("words/",A29,"_NZ.wav")</f>
-        <v>words/kangaroo_NZ.wav</v>
+        <f t="shared" si="0"/>
+        <v>words/parasite_NZ.wav</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
@@ -1259,14 +1223,14 @@
         <v>31</v>
       </c>
       <c r="B30" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="C30" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="D30" t="str">
         <f t="shared" si="0"/>
-        <v>words/corral_NZ.wav</v>
+        <v>words/zebra_NZ.wav</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
@@ -1274,14 +1238,14 @@
         <v>32</v>
       </c>
       <c r="B31" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="C31" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="D31" t="str">
         <f t="shared" si="0"/>
-        <v>words/parasite_NZ.wav</v>
+        <v>words/predator_NZ.wav</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
@@ -1289,14 +1253,14 @@
         <v>33</v>
       </c>
       <c r="B32" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="C32" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="D32" t="str">
         <f t="shared" si="0"/>
-        <v>words/newborn_NZ.wav</v>
+        <v>words/scorpion_NZ.wav</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
@@ -1304,14 +1268,14 @@
         <v>34</v>
       </c>
       <c r="B33" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="C33" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="D33" t="str">
         <f t="shared" si="0"/>
-        <v>words/zebra_NZ.wav</v>
+        <v>words/dolphin_NZ.wav</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
@@ -1319,14 +1283,14 @@
         <v>35</v>
       </c>
       <c r="B34" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="C34" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="D34" t="str">
         <f t="shared" si="0"/>
-        <v>words/predator_NZ.wav</v>
+        <v>words/cricket_NZ.wav</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
@@ -1334,14 +1298,14 @@
         <v>36</v>
       </c>
       <c r="B35" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="C35" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="D35" t="str">
         <f t="shared" si="0"/>
-        <v>words/scorpion_NZ.wav</v>
+        <v>words/penguin_NZ.wav</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
@@ -1349,14 +1313,14 @@
         <v>37</v>
       </c>
       <c r="B36" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="C36" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="D36" t="str">
         <f t="shared" si="0"/>
-        <v>words/dolphin_NZ.wav</v>
+        <v>words/cuckoo_NZ.wav</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
@@ -1364,14 +1328,14 @@
         <v>38</v>
       </c>
       <c r="B37" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="C37" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="D37" t="str">
         <f t="shared" si="0"/>
-        <v>words/cricket_NZ.wav</v>
+        <v>words/fiancee_NZ.wav</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
@@ -1379,14 +1343,14 @@
         <v>39</v>
       </c>
       <c r="B38" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="C38" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="D38" t="str">
         <f t="shared" si="0"/>
-        <v>words/penguin_NZ.wav</v>
+        <v>words/bacteria_NZ.wav</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
@@ -1394,14 +1358,14 @@
         <v>40</v>
       </c>
       <c r="B39" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="C39" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="D39" t="str">
         <f t="shared" si="0"/>
-        <v>words/cuckoo_NZ.wav</v>
+        <v>words/goldfish_NZ.wav</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
@@ -1409,14 +1373,14 @@
         <v>41</v>
       </c>
       <c r="B40" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="C40" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="D40" t="str">
         <f t="shared" si="0"/>
-        <v>words/fiancee_NZ.wav</v>
+        <v>words/oyster_NZ.wav</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
@@ -1424,14 +1388,14 @@
         <v>42</v>
       </c>
       <c r="B41" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="C41" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="D41" t="str">
         <f t="shared" si="0"/>
-        <v>words/bacteria_NZ.wav</v>
+        <v>words/insect_NZ.wav</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
@@ -1439,14 +1403,14 @@
         <v>43</v>
       </c>
       <c r="B42" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="C42" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="D42" t="str">
         <f t="shared" si="0"/>
-        <v>words/goldfish_NZ.wav</v>
+        <v>words/parrot_NZ.wav</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
@@ -1454,14 +1418,14 @@
         <v>44</v>
       </c>
       <c r="B43" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="C43" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="D43" t="str">
         <f t="shared" si="0"/>
-        <v>words/oyster_NZ.wav</v>
+        <v>words/reindeer_NZ.wav</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
@@ -1469,14 +1433,14 @@
         <v>45</v>
       </c>
       <c r="B44" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="C44" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="D44" t="str">
         <f t="shared" si="0"/>
-        <v>words/insect_NZ.wav</v>
+        <v>words/kitten_NZ.wav</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
@@ -1484,14 +1448,14 @@
         <v>46</v>
       </c>
       <c r="B45" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="C45" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="D45" t="str">
-        <f t="shared" si="0"/>
-        <v>words/parrot_NZ.wav</v>
+        <f>_xlfn.CONCAT("words/",A45,"_NZ.wav")</f>
+        <v>words/camel_NZ.wav</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
@@ -1499,14 +1463,14 @@
         <v>47</v>
       </c>
       <c r="B46" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="C46" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="D46" t="str">
         <f t="shared" si="0"/>
-        <v>words/reindeer_NZ.wav</v>
+        <v>words/donkey_NZ.wav</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
@@ -1514,14 +1478,14 @@
         <v>48</v>
       </c>
       <c r="B47" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="C47" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="D47" t="str">
         <f t="shared" si="0"/>
-        <v>words/kitten_NZ.wav</v>
+        <v>words/butterfly_NZ.wav</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
@@ -1529,14 +1493,14 @@
         <v>49</v>
       </c>
       <c r="B48" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="C48" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="D48" t="str">
-        <f>_xlfn.CONCAT("words/",A48,"_NZ.wav")</f>
-        <v>words/camel_NZ.wav</v>
+        <f t="shared" si="0"/>
+        <v>words/lion_NZ.wav</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
@@ -1544,14 +1508,14 @@
         <v>50</v>
       </c>
       <c r="B49" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="C49" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="D49" t="str">
         <f t="shared" si="0"/>
-        <v>words/donkey_NZ.wav</v>
+        <v>words/salmon_NZ.wav</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
@@ -1559,14 +1523,14 @@
         <v>51</v>
       </c>
       <c r="B50" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="C50" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="D50" t="str">
         <f t="shared" si="0"/>
-        <v>words/leopard_NZ.wav</v>
+        <v>words/tuna_NZ.wav</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
@@ -1574,14 +1538,14 @@
         <v>52</v>
       </c>
       <c r="B51" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="C51" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="D51" t="str">
         <f t="shared" si="0"/>
-        <v>words/squirrel_NZ.wav</v>
+        <v>words/spider_NZ.wav</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
@@ -1589,14 +1553,14 @@
         <v>53</v>
       </c>
       <c r="B52" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="C52" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="D52" t="str">
         <f t="shared" si="0"/>
-        <v>words/butterfly_NZ.wav</v>
+        <v>words/elephant_NZ.wav</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
@@ -1604,14 +1568,14 @@
         <v>54</v>
       </c>
       <c r="B53" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="C53" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="D53" t="str">
         <f t="shared" si="0"/>
-        <v>words/lion_NZ.wav</v>
+        <v>words/goose_NZ.wav</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
@@ -1619,14 +1583,14 @@
         <v>55</v>
       </c>
       <c r="B54" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="C54" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="D54" t="str">
         <f t="shared" si="0"/>
-        <v>words/salmon_NZ.wav</v>
+        <v>words/tiger_NZ.wav</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
@@ -1634,14 +1598,14 @@
         <v>56</v>
       </c>
       <c r="B55" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="C55" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="D55" t="str">
         <f t="shared" si="0"/>
-        <v>words/tuna_NZ.wav</v>
+        <v>words/mouse_NZ.wav</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
@@ -1649,14 +1613,14 @@
         <v>57</v>
       </c>
       <c r="B56" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="C56" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="D56" t="str">
         <f t="shared" si="0"/>
-        <v>words/spider_NZ.wav</v>
+        <v>words/rabbit_NZ.wav</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
@@ -1664,14 +1628,14 @@
         <v>58</v>
       </c>
       <c r="B57" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="C57" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="D57" t="str">
         <f t="shared" si="0"/>
-        <v>words/elephant_NZ.wav</v>
+        <v>words/snake_NZ.wav</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
@@ -1679,14 +1643,14 @@
         <v>59</v>
       </c>
       <c r="B58" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="C58" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="D58" t="str">
         <f t="shared" si="0"/>
-        <v>words/goose_NZ.wav</v>
+        <v>words/turkey_NZ.wav</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
@@ -1694,14 +1658,14 @@
         <v>60</v>
       </c>
       <c r="B59" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="C59" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="D59" t="str">
         <f t="shared" si="0"/>
-        <v>words/cattle_NZ.wav</v>
+        <v>words/flower_NZ.wav</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
@@ -1709,14 +1673,14 @@
         <v>61</v>
       </c>
       <c r="B60" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="C60" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="D60" t="str">
         <f t="shared" si="0"/>
-        <v>words/tiger_NZ.wav</v>
+        <v>words/grandmother_NZ.wav</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
@@ -1724,14 +1688,14 @@
         <v>62</v>
       </c>
       <c r="B61" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="C61" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="D61" t="str">
-        <f t="shared" si="0"/>
-        <v>words/mouse_NZ.wav</v>
+        <f>_xlfn.CONCAT("words/",A61,"_NZ.wav")</f>
+        <v>words/monkey_NZ.wav</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
@@ -1739,14 +1703,14 @@
         <v>63</v>
       </c>
       <c r="B62" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="C62" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="D62" t="str">
         <f t="shared" si="0"/>
-        <v>words/rabbit_NZ.wav</v>
+        <v>words/musket_NZ.wav</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
@@ -1754,14 +1718,14 @@
         <v>64</v>
       </c>
       <c r="B63" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="C63" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="D63" t="str">
-        <f t="shared" si="0"/>
-        <v>words/snake_NZ.wav</v>
+        <f t="shared" ref="D63:D77" si="1">_xlfn.CONCAT("words/",A63,"_NZ.wav")</f>
+        <v>words/sunscreen_NZ.wav</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
@@ -1769,14 +1733,14 @@
         <v>65</v>
       </c>
       <c r="B64" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="C64" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="D64" t="str">
-        <f t="shared" si="0"/>
-        <v>words/turkey_NZ.wav</v>
+        <f t="shared" si="1"/>
+        <v>words/sauerkraut_NZ.wav</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
@@ -1784,14 +1748,14 @@
         <v>66</v>
       </c>
       <c r="B65" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="C65" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="D65" t="str">
-        <f t="shared" si="0"/>
-        <v>words/flower_NZ.wav</v>
+        <f t="shared" si="1"/>
+        <v>words/matchbook_NZ.wav</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
@@ -1799,14 +1763,14 @@
         <v>67</v>
       </c>
       <c r="B66" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="C66" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="D66" t="str">
-        <f t="shared" si="0"/>
-        <v>words/grandmother_NZ.wav</v>
+        <f t="shared" si="1"/>
+        <v>words/eyeliner_NZ.wav</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
@@ -1814,14 +1778,14 @@
         <v>68</v>
       </c>
       <c r="B67" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="C67" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="D67" t="str">
-        <f>_xlfn.CONCAT("words/",A67,"_NZ.wav")</f>
-        <v>words/monkey_NZ.wav</v>
+        <f t="shared" si="1"/>
+        <v>words/aftershave_NZ.wav</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
@@ -1829,14 +1793,14 @@
         <v>69</v>
       </c>
       <c r="B68" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="C68" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="D68" t="str">
-        <f t="shared" si="0"/>
-        <v>words/musket_NZ.wav</v>
+        <f t="shared" si="1"/>
+        <v>words/corkscrew_NZ.wav</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
@@ -1844,14 +1808,14 @@
         <v>70</v>
       </c>
       <c r="B69" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="C69" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="D69" t="str">
-        <f t="shared" ref="D69:D85" si="1">_xlfn.CONCAT("words/",A69,"_NZ.wav")</f>
-        <v>words/sunscreen_NZ.wav</v>
+        <f t="shared" si="1"/>
+        <v>words/airstrip_NZ.wav</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
@@ -1859,14 +1823,14 @@
         <v>71</v>
       </c>
       <c r="B70" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="C70" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="D70" t="str">
         <f t="shared" si="1"/>
-        <v>words/sauerkraut_NZ.wav</v>
+        <v>words/fragrance_NZ.wav</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
@@ -1874,14 +1838,14 @@
         <v>72</v>
       </c>
       <c r="B71" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="C71" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="D71" t="str">
         <f t="shared" si="1"/>
-        <v>words/matchbook_NZ.wav</v>
+        <v>words/scrapbook_NZ.wav</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
@@ -1889,14 +1853,14 @@
         <v>73</v>
       </c>
       <c r="B72" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="C72" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="D72" t="str">
         <f t="shared" si="1"/>
-        <v>words/eyeliner_NZ.wav</v>
+        <v>words/buttermilk_NZ.wav</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
@@ -1904,14 +1868,14 @@
         <v>74</v>
       </c>
       <c r="B73" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="C73" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="D73" t="str">
         <f t="shared" si="1"/>
-        <v>words/aftershave_NZ.wav</v>
+        <v>words/racquetball_NZ.wav</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
@@ -1919,14 +1883,14 @@
         <v>75</v>
       </c>
       <c r="B74" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="C74" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="D74" t="str">
         <f t="shared" si="1"/>
-        <v>words/corkscrew_NZ.wav</v>
+        <v>words/podium_NZ.wav</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
@@ -1934,14 +1898,14 @@
         <v>76</v>
       </c>
       <c r="B75" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="C75" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="D75" t="str">
         <f t="shared" si="1"/>
-        <v>words/thermos_NZ.wav</v>
+        <v>words/duffel_NZ.wav</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
@@ -1949,14 +1913,14 @@
         <v>77</v>
       </c>
       <c r="B76" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="C76" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="D76" t="str">
         <f t="shared" si="1"/>
-        <v>words/airstrip_NZ.wav</v>
+        <v>words/eggnog_NZ.wav</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
@@ -1964,14 +1928,14 @@
         <v>78</v>
       </c>
       <c r="B77" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="C77" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="D77" t="str">
         <f t="shared" si="1"/>
-        <v>words/fragrance_NZ.wav</v>
+        <v>words/folder_NZ.wav</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
@@ -1979,14 +1943,14 @@
         <v>79</v>
       </c>
       <c r="B78" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="C78" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="D78" t="str">
-        <f t="shared" si="1"/>
-        <v>words/scrapbook_NZ.wav</v>
+        <f>_xlfn.CONCAT("words/",A78,"_NZ.wav")</f>
+        <v>words/armour_NZ.wav</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
@@ -1994,14 +1958,14 @@
         <v>80</v>
       </c>
       <c r="B79" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="C79" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="D79" t="str">
-        <f t="shared" si="1"/>
-        <v>words/buttermilk_NZ.wav</v>
+        <f t="shared" ref="D79:D93" si="2">_xlfn.CONCAT("words/",A79,"_NZ.wav")</f>
+        <v>words/syringe_NZ.wav</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
@@ -2009,14 +1973,14 @@
         <v>81</v>
       </c>
       <c r="B80" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="C80" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="D80" t="str">
-        <f t="shared" si="1"/>
-        <v>words/racquetball_NZ.wav</v>
+        <f t="shared" si="2"/>
+        <v>words/manicure_NZ.wav</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
@@ -2024,14 +1988,14 @@
         <v>82</v>
       </c>
       <c r="B81" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="C81" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="D81" t="str">
-        <f t="shared" si="1"/>
-        <v>words/skillet_NZ.wav</v>
+        <f t="shared" si="2"/>
+        <v>words/washer_NZ.wav</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.2">
@@ -2039,14 +2003,14 @@
         <v>83</v>
       </c>
       <c r="B82" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="C82" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="D82" t="str">
-        <f t="shared" si="1"/>
-        <v>words/podium_NZ.wav</v>
+        <f t="shared" si="2"/>
+        <v>words/espresso_NZ.wav</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
@@ -2054,14 +2018,14 @@
         <v>84</v>
       </c>
       <c r="B83" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="C83" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="D83" t="str">
-        <f t="shared" si="1"/>
-        <v>words/duffel_NZ.wav</v>
+        <f t="shared" si="2"/>
+        <v>words/email_NZ.wav</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
@@ -2069,14 +2033,14 @@
         <v>85</v>
       </c>
       <c r="B84" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="C84" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="D84" t="str">
-        <f t="shared" si="1"/>
-        <v>words/eggnog_NZ.wav</v>
+        <f t="shared" si="2"/>
+        <v>words/barbershop_NZ.wav</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.2">
@@ -2084,14 +2048,14 @@
         <v>86</v>
       </c>
       <c r="B85" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="C85" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="D85" t="str">
-        <f t="shared" si="1"/>
-        <v>words/folder_NZ.wav</v>
+        <f t="shared" si="2"/>
+        <v>words/uranium_NZ.wav</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.2">
@@ -2099,14 +2063,14 @@
         <v>87</v>
       </c>
       <c r="B86" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="C86" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="D86" t="str">
-        <f>_xlfn.CONCAT("words/",A86,"_NZ.wav")</f>
-        <v>words/armour_NZ.wav</v>
+        <f t="shared" si="2"/>
+        <v>words/softball_NZ.wav</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.2">
@@ -2114,14 +2078,14 @@
         <v>88</v>
       </c>
       <c r="B87" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="C87" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="D87" t="str">
-        <f t="shared" ref="D87:D102" si="2">_xlfn.CONCAT("words/",A87,"_NZ.wav")</f>
-        <v>words/syringe_NZ.wav</v>
+        <f t="shared" si="2"/>
+        <v>words/bleach_NZ.wav</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.2">
@@ -2129,14 +2093,14 @@
         <v>89</v>
       </c>
       <c r="B88" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="C88" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="D88" t="str">
         <f t="shared" si="2"/>
-        <v>words/manicure_NZ.wav</v>
+        <v>words/vocabulary_NZ.wav</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.2">
@@ -2144,14 +2108,14 @@
         <v>90</v>
       </c>
       <c r="B89" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="C89" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="D89" t="str">
         <f t="shared" si="2"/>
-        <v>words/washer_NZ.wav</v>
+        <v>words/gadget_NZ.wav</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.2">
@@ -2159,14 +2123,14 @@
         <v>91</v>
       </c>
       <c r="B90" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="C90" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="D90" t="str">
         <f t="shared" si="2"/>
-        <v>words/espresso_NZ.wav</v>
+        <v>words/grapefruit_NZ.wav</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.2">
@@ -2174,14 +2138,14 @@
         <v>92</v>
       </c>
       <c r="B91" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="C91" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="D91" t="str">
         <f t="shared" si="2"/>
-        <v>words/email_NZ.wav</v>
+        <v>words/plaster_NZ.wav</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.2">
@@ -2189,14 +2153,14 @@
         <v>93</v>
       </c>
       <c r="B92" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="C92" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="D92" t="str">
         <f t="shared" si="2"/>
-        <v>words/barbershop_NZ.wav</v>
+        <v>words/hydrogen_NZ.wav</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.2">
@@ -2204,14 +2168,14 @@
         <v>94</v>
       </c>
       <c r="B93" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="C93" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="D93" t="str">
         <f t="shared" si="2"/>
-        <v>words/uranium_NZ.wav</v>
+        <v>words/aquarium_NZ.wav</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.2">
@@ -2219,14 +2183,14 @@
         <v>95</v>
       </c>
       <c r="B94" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="C94" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="D94" t="str">
-        <f t="shared" si="2"/>
-        <v>words/softball_NZ.wav</v>
+        <f>_xlfn.CONCAT("words/",A94,"_NZ.wav")</f>
+        <v>words/boiler_NZ.wav</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.2">
@@ -2234,14 +2198,14 @@
         <v>96</v>
       </c>
       <c r="B95" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="C95" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="D95" t="str">
-        <f t="shared" si="2"/>
-        <v>words/bleach_NZ.wav</v>
+        <f t="shared" ref="D95:D115" si="3">_xlfn.CONCAT("words/",A95,"_NZ.wav")</f>
+        <v>words/pager_NZ.wav</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.2">
@@ -2249,14 +2213,14 @@
         <v>97</v>
       </c>
       <c r="B96" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="C96" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="D96" t="str">
-        <f t="shared" si="2"/>
-        <v>words/vocabulary_NZ.wav</v>
+        <f t="shared" si="3"/>
+        <v>words/jewellery_NZ.wav</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.2">
@@ -2264,14 +2228,14 @@
         <v>98</v>
       </c>
       <c r="B97" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="C97" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="D97" t="str">
-        <f t="shared" si="2"/>
-        <v>words/gadget_NZ.wav</v>
+        <f t="shared" si="3"/>
+        <v>words/mainland_NZ.wav</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.2">
@@ -2279,14 +2243,14 @@
         <v>99</v>
       </c>
       <c r="B98" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="C98" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="D98" t="str">
-        <f t="shared" si="2"/>
-        <v>words/grapefruit_NZ.wav</v>
+        <f t="shared" si="3"/>
+        <v>words/cinnamon_NZ.wav</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.2">
@@ -2294,14 +2258,14 @@
         <v>100</v>
       </c>
       <c r="B99" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="C99" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="D99" t="str">
-        <f t="shared" si="2"/>
-        <v>words/cupboard_NZ.wav</v>
+        <f t="shared" si="3"/>
+        <v>words/fiber_NZ.wav</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.2">
@@ -2309,14 +2273,14 @@
         <v>101</v>
       </c>
       <c r="B100" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="C100" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="D100" t="str">
-        <f t="shared" si="2"/>
-        <v>words/plaster_NZ.wav</v>
+        <f t="shared" si="3"/>
+        <v>words/bagel_NZ.wav</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.2">
@@ -2324,14 +2288,14 @@
         <v>102</v>
       </c>
       <c r="B101" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="C101" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="D101" t="str">
-        <f t="shared" si="2"/>
-        <v>words/hydrogen_NZ.wav</v>
+        <f t="shared" si="3"/>
+        <v>words/casket_NZ.wav</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.2">
@@ -2339,14 +2303,14 @@
         <v>103</v>
       </c>
       <c r="B102" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="C102" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="D102" t="str">
-        <f t="shared" si="2"/>
-        <v>words/aquarium_NZ.wav</v>
+        <f t="shared" si="3"/>
+        <v>words/telegraph_NZ.wav</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.2">
@@ -2354,14 +2318,14 @@
         <v>104</v>
       </c>
       <c r="B103" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="C103" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="D103" t="str">
-        <f>_xlfn.CONCAT("words/",A103,"_NZ.wav")</f>
-        <v>words/boiler_NZ.wav</v>
+        <f t="shared" si="3"/>
+        <v>words/laptop_NZ.wav</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.2">
@@ -2369,14 +2333,14 @@
         <v>105</v>
       </c>
       <c r="B104" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="C104" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="D104" t="str">
-        <f t="shared" ref="D104:D126" si="3">_xlfn.CONCAT("words/",A104,"_NZ.wav")</f>
-        <v>words/pager_NZ.wav</v>
+        <f t="shared" si="3"/>
+        <v>words/yearbook_NZ.wav</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.2">
@@ -2384,14 +2348,14 @@
         <v>106</v>
       </c>
       <c r="B105" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="C105" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="D105" t="str">
         <f t="shared" si="3"/>
-        <v>words/jewellery_NZ.wav</v>
+        <v>words/toothbrush_NZ.wav</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.2">
@@ -2399,14 +2363,14 @@
         <v>107</v>
       </c>
       <c r="B106" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="C106" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="D106" t="str">
         <f t="shared" si="3"/>
-        <v>words/mainland_NZ.wav</v>
+        <v>words/playground_NZ.wav</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.2">
@@ -2414,14 +2378,14 @@
         <v>108</v>
       </c>
       <c r="B107" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="C107" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="D107" t="str">
         <f t="shared" si="3"/>
-        <v>words/cinnamon_NZ.wav</v>
+        <v>words/freezer_NZ.wav</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.2">
@@ -2429,14 +2393,14 @@
         <v>109</v>
       </c>
       <c r="B108" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="C108" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="D108" t="str">
         <f t="shared" si="3"/>
-        <v>words/fiber_NZ.wav</v>
+        <v>words/freeway_NZ.wav</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.2">
@@ -2444,14 +2408,14 @@
         <v>110</v>
       </c>
       <c r="B109" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="C109" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="D109" t="str">
         <f t="shared" si="3"/>
-        <v>words/bagel_NZ.wav</v>
+        <v>words/makeup_NZ.wav</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.2">
@@ -2459,14 +2423,14 @@
         <v>111</v>
       </c>
       <c r="B110" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="C110" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="D110" t="str">
         <f t="shared" si="3"/>
-        <v>words/casket_NZ.wav</v>
+        <v>words/arrow_NZ.wav</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.2">
@@ -2474,14 +2438,14 @@
         <v>112</v>
       </c>
       <c r="B111" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="C111" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="D111" t="str">
         <f t="shared" si="3"/>
-        <v>words/telegraph_NZ.wav</v>
+        <v>words/dynamite_NZ.wav</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.2">
@@ -2489,14 +2453,14 @@
         <v>113</v>
       </c>
       <c r="B112" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="C112" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="D112" t="str">
         <f t="shared" si="3"/>
-        <v>words/laptop_NZ.wav</v>
+        <v>words/photograph_NZ.wav</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.2">
@@ -2504,14 +2468,14 @@
         <v>114</v>
       </c>
       <c r="B113" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="C113" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="D113" t="str">
         <f t="shared" si="3"/>
-        <v>words/yearbook_NZ.wav</v>
+        <v>words/missile_NZ.wav</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.2">
@@ -2519,14 +2483,14 @@
         <v>115</v>
       </c>
       <c r="B114" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="C114" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="D114" t="str">
         <f t="shared" si="3"/>
-        <v>words/toothbrush_NZ.wav</v>
+        <v>words/basket_NZ.wav</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.2">
@@ -2534,14 +2498,14 @@
         <v>116</v>
       </c>
       <c r="B115" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="C115" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="D115" t="str">
         <f t="shared" si="3"/>
-        <v>words/cocoa_NZ.wav</v>
+        <v>words/museum_NZ.wav</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.2">
@@ -2549,14 +2513,14 @@
         <v>117</v>
       </c>
       <c r="B116" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="C116" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="D116" t="str">
-        <f t="shared" si="3"/>
-        <v>words/playground_NZ.wav</v>
+        <f>_xlfn.CONCAT("words/",A116,"_NZ.wav")</f>
+        <v>words/palace_NZ.wav</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.2">
@@ -2564,14 +2528,14 @@
         <v>118</v>
       </c>
       <c r="B117" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="C117" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="D117" t="str">
-        <f t="shared" si="3"/>
-        <v>words/freezer_NZ.wav</v>
+        <f t="shared" ref="D117:D121" si="4">_xlfn.CONCAT("words/",A117,"_NZ.wav")</f>
+        <v>words/diamond_NZ.wav</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.2">
@@ -2579,14 +2543,14 @@
         <v>119</v>
       </c>
       <c r="B118" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="C118" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="D118" t="str">
-        <f t="shared" si="3"/>
-        <v>words/freeway_NZ.wav</v>
+        <f t="shared" si="4"/>
+        <v>words/butter_NZ.wav</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.2">
@@ -2594,14 +2558,14 @@
         <v>120</v>
       </c>
       <c r="B119" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="C119" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="D119" t="str">
-        <f t="shared" si="3"/>
-        <v>words/makeup_NZ.wav</v>
+        <f t="shared" si="4"/>
+        <v>words/wallet_NZ.wav</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.2">
@@ -2609,14 +2573,14 @@
         <v>121</v>
       </c>
       <c r="B120" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="C120" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="D120" t="str">
-        <f t="shared" si="3"/>
-        <v>words/poster_NZ.wav</v>
+        <f t="shared" si="4"/>
+        <v>words/garage_NZ.wav</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.2">
@@ -2624,4152 +2588,3612 @@
         <v>122</v>
       </c>
       <c r="B121" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="C121" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="D121" t="str">
-        <f t="shared" si="3"/>
-        <v>words/arrow_NZ.wav</v>
+        <f t="shared" si="4"/>
+        <v>words/pizza_NZ.wav</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>123</v>
+        <v>3</v>
       </c>
       <c r="B122" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
       <c r="C122" t="s">
-        <v>138</v>
+        <v>125</v>
       </c>
       <c r="D122" t="str">
-        <f t="shared" si="3"/>
-        <v>words/dynamite_NZ.wav</v>
+        <f>_xlfn.CONCAT("words/",A122,"_US.wav")</f>
+        <v>words/shellfish_US.wav</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="B123" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
       <c r="C123" t="s">
-        <v>138</v>
+        <v>125</v>
       </c>
       <c r="D123" t="str">
-        <f t="shared" si="3"/>
-        <v>words/photograph_NZ.wav</v>
+        <f t="shared" ref="D123:D180" si="5">_xlfn.CONCAT("words/",A123,"_US.wav")</f>
+        <v>words/bloodhound_US.wav</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>125</v>
+        <v>5</v>
       </c>
       <c r="B124" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
       <c r="C124" t="s">
-        <v>138</v>
+        <v>125</v>
       </c>
       <c r="D124" t="str">
-        <f t="shared" si="3"/>
-        <v>words/missile_NZ.wav</v>
+        <f t="shared" si="5"/>
+        <v>words/antelope_US.wav</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>126</v>
+        <v>6</v>
       </c>
       <c r="B125" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
       <c r="C125" t="s">
-        <v>138</v>
+        <v>125</v>
       </c>
       <c r="D125" t="str">
-        <f t="shared" si="3"/>
-        <v>words/basket_NZ.wav</v>
+        <f t="shared" si="5"/>
+        <v>words/woodpecker_US.wav</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>127</v>
+        <v>7</v>
       </c>
       <c r="B126" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
       <c r="C126" t="s">
-        <v>138</v>
+        <v>125</v>
       </c>
       <c r="D126" t="str">
-        <f t="shared" si="3"/>
-        <v>words/museum_NZ.wav</v>
+        <f t="shared" si="5"/>
+        <v>words/swordfish_US.wav</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>128</v>
+        <v>8</v>
       </c>
       <c r="B127" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
       <c r="C127" t="s">
-        <v>138</v>
+        <v>125</v>
       </c>
       <c r="D127" t="str">
-        <f>_xlfn.CONCAT("words/",A127,"_NZ.wav")</f>
-        <v>words/palace_NZ.wav</v>
+        <f t="shared" si="5"/>
+        <v>words/walrus_US.wav</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>129</v>
+        <v>9</v>
       </c>
       <c r="B128" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
       <c r="C128" t="s">
-        <v>138</v>
+        <v>125</v>
       </c>
       <c r="D128" t="str">
-        <f t="shared" ref="D128:D134" si="4">_xlfn.CONCAT("words/",A128,"_NZ.wav")</f>
-        <v>words/diamond_NZ.wav</v>
+        <f t="shared" si="5"/>
+        <v>words/tortoise_US.wav</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>130</v>
+        <v>10</v>
       </c>
       <c r="B129" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
       <c r="C129" t="s">
-        <v>138</v>
+        <v>125</v>
       </c>
       <c r="D129" t="str">
-        <f t="shared" si="4"/>
-        <v>words/butter_NZ.wav</v>
+        <f t="shared" si="5"/>
+        <v>words/caterpillar_US.wav</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>131</v>
+        <v>11</v>
       </c>
       <c r="B130" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
       <c r="C130" t="s">
-        <v>138</v>
+        <v>125</v>
       </c>
       <c r="D130" t="str">
-        <f t="shared" si="4"/>
-        <v>words/vehicle_NZ.wav</v>
+        <f t="shared" si="5"/>
+        <v>words/piranha_US.wav</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>132</v>
+        <v>12</v>
       </c>
       <c r="B131" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
       <c r="C131" t="s">
-        <v>138</v>
+        <v>125</v>
       </c>
       <c r="D131" t="str">
-        <f t="shared" si="4"/>
-        <v>words/wallet_NZ.wav</v>
+        <f t="shared" si="5"/>
+        <v>words/chimpanzee_US.wav</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>133</v>
+        <v>13</v>
       </c>
       <c r="B132" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
       <c r="C132" t="s">
-        <v>138</v>
+        <v>125</v>
       </c>
       <c r="D132" t="str">
-        <f t="shared" si="4"/>
-        <v>words/garage_NZ.wav</v>
+        <f t="shared" si="5"/>
+        <v>words/gazelle_US.wav</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>134</v>
+        <v>14</v>
       </c>
       <c r="B133" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
       <c r="C133" t="s">
-        <v>138</v>
+        <v>125</v>
       </c>
       <c r="D133" t="str">
-        <f t="shared" si="4"/>
-        <v>words/pizza_NZ.wav</v>
+        <f t="shared" si="5"/>
+        <v>words/seagull_US.wav</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="B134" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="C134" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="D134" t="str">
-        <f>_xlfn.CONCAT("words/",A134,"_US.wav")</f>
-        <v>words/shellfish_US.wav</v>
+        <f t="shared" si="5"/>
+        <v>words/catfish_US.wav</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="B135" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="C135" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="D135" t="str">
-        <f t="shared" ref="D135:D198" si="5">_xlfn.CONCAT("words/",A135,"_US.wav")</f>
-        <v>words/bloodhound_US.wav</v>
+        <f t="shared" si="5"/>
+        <v>words/critter_US.wav</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="B136" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="C136" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="D136" t="str">
         <f t="shared" si="5"/>
-        <v>words/antelope_US.wav</v>
+        <v>words/giraffe_US.wav</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="B137" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="C137" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="D137" t="str">
         <f t="shared" si="5"/>
-        <v>words/woodpecker_US.wav</v>
+        <v>words/ferret_US.wav</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="B138" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="C138" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="D138" t="str">
         <f t="shared" si="5"/>
-        <v>words/swordfish_US.wav</v>
+        <v>words/rattlesnake_US.wav</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="B139" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="C139" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="D139" t="str">
         <f t="shared" si="5"/>
-        <v>words/parakeet_US.wav</v>
+        <v>words/octopus_US.wav</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="B140" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="C140" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="D140" t="str">
         <f t="shared" si="5"/>
-        <v>words/walrus_US.wav</v>
+        <v>words/livestock_US.wav</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="B141" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="C141" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="D141" t="str">
         <f t="shared" si="5"/>
-        <v>words/tortoise_US.wav</v>
+        <v>words/beetle_US.wav</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="B142" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="C142" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="D142" t="str">
         <f t="shared" si="5"/>
-        <v>words/caterpillar_US.wav</v>
+        <v>words/possum_US.wav</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="B143" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="C143" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="D143" t="str">
         <f t="shared" si="5"/>
-        <v>words/piranha_US.wav</v>
+        <v>words/rhino_US.wav</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="B144" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="C144" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="D144" t="str">
         <f t="shared" si="5"/>
-        <v>words/chimpanzee_US.wav</v>
+        <v>words/panda_US.wav</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="B145" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="C145" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="D145" t="str">
         <f t="shared" si="5"/>
-        <v>words/gazelle_US.wav</v>
+        <v>words/hamster_US.wav</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="B146" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="C146" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="D146" t="str">
         <f t="shared" si="5"/>
-        <v>words/seagull_US.wav</v>
+        <v>words/crocodile_US.wav</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="B147" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="C147" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="D147" t="str">
         <f t="shared" si="5"/>
-        <v>words/catfish_US.wav</v>
+        <v>words/kangaroo_US.wav</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="B148" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="C148" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="D148" t="str">
         <f t="shared" si="5"/>
-        <v>words/critter_US.wav</v>
+        <v>words/corral_US.wav</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="B149" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="C149" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="D149" t="str">
         <f t="shared" si="5"/>
-        <v>words/giraffe_US.wav</v>
+        <v>words/parasite_US.wav</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="B150" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="C150" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="D150" t="str">
         <f t="shared" si="5"/>
-        <v>words/python_US.wav</v>
+        <v>words/zebra_US.wav</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="B151" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="C151" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="D151" t="str">
         <f t="shared" si="5"/>
-        <v>words/ferret_US.wav</v>
+        <v>words/predator_US.wav</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="B152" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="C152" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="D152" t="str">
         <f t="shared" si="5"/>
-        <v>words/rattlesnake_US.wav</v>
+        <v>words/scorpion_US.wav</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="B153" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="C153" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="D153" t="str">
         <f t="shared" si="5"/>
-        <v>words/octopus_US.wav</v>
+        <v>words/dolphin_US.wav</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="B154" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="C154" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="D154" t="str">
         <f t="shared" si="5"/>
-        <v>words/livestock_US.wav</v>
+        <v>words/cricket_US.wav</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="B155" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="C155" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="D155" t="str">
         <f t="shared" si="5"/>
-        <v>words/beetle_US.wav</v>
+        <v>words/penguin_US.wav</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="B156" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="C156" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="D156" t="str">
         <f t="shared" si="5"/>
-        <v>words/possum_US.wav</v>
+        <v>words/cuckoo_US.wav</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="B157" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="C157" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="D157" t="str">
         <f t="shared" si="5"/>
-        <v>words/rhino_US.wav</v>
+        <v>words/fiancee_US.wav</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="B158" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="C158" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="D158" t="str">
         <f t="shared" si="5"/>
-        <v>words/panda_US.wav</v>
+        <v>words/bacteria_US.wav</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="B159" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="C159" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="D159" t="str">
         <f t="shared" si="5"/>
-        <v>words/hamster_US.wav</v>
+        <v>words/goldfish_US.wav</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="B160" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="C160" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="D160" t="str">
         <f t="shared" si="5"/>
-        <v>words/crocodile_US.wav</v>
+        <v>words/oyster_US.wav</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="B161" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="C161" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="D161" t="str">
         <f t="shared" si="5"/>
-        <v>words/kangaroo_US.wav</v>
+        <v>words/insect_US.wav</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="B162" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="C162" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="D162" t="str">
         <f t="shared" si="5"/>
-        <v>words/corral_US.wav</v>
+        <v>words/parrot_US.wav</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="B163" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="C163" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="D163" t="str">
         <f t="shared" si="5"/>
-        <v>words/parasite_US.wav</v>
+        <v>words/reindeer_US.wav</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="B164" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="C164" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="D164" t="str">
         <f t="shared" si="5"/>
-        <v>words/newborn_US.wav</v>
+        <v>words/kitten_US.wav</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="B165" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="C165" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="D165" t="str">
         <f t="shared" si="5"/>
-        <v>words/zebra_US.wav</v>
+        <v>words/camel_US.wav</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="B166" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="C166" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="D166" t="str">
         <f t="shared" si="5"/>
-        <v>words/predator_US.wav</v>
+        <v>words/donkey_US.wav</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="B167" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="C167" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="D167" t="str">
         <f t="shared" si="5"/>
-        <v>words/scorpion_US.wav</v>
+        <v>words/butterfly_US.wav</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="B168" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="C168" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="D168" t="str">
         <f t="shared" si="5"/>
-        <v>words/dolphin_US.wav</v>
+        <v>words/lion_US.wav</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="B169" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="C169" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="D169" t="str">
         <f t="shared" si="5"/>
-        <v>words/cricket_US.wav</v>
+        <v>words/salmon_US.wav</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="B170" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="C170" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="D170" t="str">
         <f t="shared" si="5"/>
-        <v>words/penguin_US.wav</v>
+        <v>words/tuna_US.wav</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="B171" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="C171" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="D171" t="str">
         <f t="shared" si="5"/>
-        <v>words/cuckoo_US.wav</v>
+        <v>words/spider_US.wav</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="B172" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="C172" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="D172" t="str">
         <f t="shared" si="5"/>
-        <v>words/fiancee_US.wav</v>
+        <v>words/elephant_US.wav</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="B173" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="C173" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="D173" t="str">
         <f t="shared" si="5"/>
-        <v>words/bacteria_US.wav</v>
+        <v>words/goose_US.wav</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="B174" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="C174" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="D174" t="str">
         <f t="shared" si="5"/>
-        <v>words/goldfish_US.wav</v>
+        <v>words/tiger_US.wav</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="B175" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="C175" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="D175" t="str">
         <f t="shared" si="5"/>
-        <v>words/oyster_US.wav</v>
+        <v>words/mouse_US.wav</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="B176" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="C176" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="D176" t="str">
         <f t="shared" si="5"/>
-        <v>words/insect_US.wav</v>
+        <v>words/rabbit_US.wav</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="B177" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="C177" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="D177" t="str">
         <f t="shared" si="5"/>
-        <v>words/parrot_US.wav</v>
+        <v>words/snake_US.wav</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="B178" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="C178" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="D178" t="str">
         <f t="shared" si="5"/>
-        <v>words/reindeer_US.wav</v>
+        <v>words/turkey_US.wav</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="B179" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="C179" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="D179" t="str">
         <f t="shared" si="5"/>
-        <v>words/kitten_US.wav</v>
+        <v>words/flower_US.wav</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="B180" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="C180" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="D180" t="str">
         <f t="shared" si="5"/>
-        <v>words/camel_US.wav</v>
+        <v>words/grandmother_US.wav</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="B181" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="C181" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="D181" t="str">
-        <f t="shared" si="5"/>
-        <v>words/donkey_US.wav</v>
+        <f t="shared" ref="D181:D186" si="6">_xlfn.CONCAT("words/",A181,"_US.wav")</f>
+        <v>words/monkey_US.wav</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="B182" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="C182" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="D182" t="str">
-        <f>_xlfn.CONCAT("words/",A182,"_US.wav")</f>
-        <v>words/leopard_US.wav</v>
+        <f t="shared" si="6"/>
+        <v>words/musket_US.wav</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="B183" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="C183" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="D183" t="str">
-        <f t="shared" si="5"/>
-        <v>words/squirrel_US.wav</v>
+        <f t="shared" si="6"/>
+        <v>words/sunscreen_US.wav</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="B184" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="C184" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="D184" t="str">
-        <f t="shared" si="5"/>
-        <v>words/butterfly_US.wav</v>
+        <f t="shared" si="6"/>
+        <v>words/sauerkraut_US.wav</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="B185" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="C185" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="D185" t="str">
-        <f t="shared" si="5"/>
-        <v>words/lion_US.wav</v>
+        <f t="shared" si="6"/>
+        <v>words/matchbook_US.wav</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="B186" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="C186" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="D186" t="str">
-        <f t="shared" si="5"/>
-        <v>words/salmon_US.wav</v>
+        <f t="shared" si="6"/>
+        <v>words/eyeliner_US.wav</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="B187" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="C187" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="D187" t="str">
-        <f t="shared" si="5"/>
-        <v>words/tuna_US.wav</v>
+        <f>_xlfn.CONCAT("words/",A187,"_US.wav")</f>
+        <v>words/aftershave_US.wav</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="B188" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="C188" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="D188" t="str">
-        <f t="shared" si="5"/>
-        <v>words/spider_US.wav</v>
+        <f t="shared" ref="D188:D205" si="7">_xlfn.CONCAT("words/",A188,"_US.wav")</f>
+        <v>words/corkscrew_US.wav</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="B189" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="C189" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="D189" t="str">
-        <f t="shared" si="5"/>
-        <v>words/elephant_US.wav</v>
+        <f t="shared" si="7"/>
+        <v>words/airstrip_US.wav</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="B190" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="C190" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="D190" t="str">
-        <f t="shared" si="5"/>
-        <v>words/goose_US.wav</v>
+        <f t="shared" si="7"/>
+        <v>words/fragrance_US.wav</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="B191" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="C191" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="D191" t="str">
-        <f t="shared" si="5"/>
-        <v>words/cattle_US.wav</v>
+        <f t="shared" si="7"/>
+        <v>words/scrapbook_US.wav</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="B192" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="C192" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="D192" t="str">
-        <f t="shared" si="5"/>
-        <v>words/tiger_US.wav</v>
+        <f t="shared" si="7"/>
+        <v>words/buttermilk_US.wav</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="B193" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="C193" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="D193" t="str">
-        <f t="shared" si="5"/>
-        <v>words/mouse_US.wav</v>
+        <f t="shared" si="7"/>
+        <v>words/racquetball_US.wav</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="B194" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="C194" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="D194" t="str">
-        <f t="shared" si="5"/>
-        <v>words/rabbit_US.wav</v>
+        <f t="shared" si="7"/>
+        <v>words/podium_US.wav</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="B195" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="C195" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="D195" t="str">
-        <f t="shared" si="5"/>
-        <v>words/snake_US.wav</v>
+        <f t="shared" si="7"/>
+        <v>words/duffel_US.wav</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="B196" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="C196" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="D196" t="str">
-        <f t="shared" si="5"/>
-        <v>words/turkey_US.wav</v>
+        <f t="shared" si="7"/>
+        <v>words/eggnog_US.wav</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="B197" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="C197" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="D197" t="str">
-        <f t="shared" si="5"/>
-        <v>words/flower_US.wav</v>
+        <f t="shared" si="7"/>
+        <v>words/folder_US.wav</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
-        <v>67</v>
+        <v>79</v>
       </c>
       <c r="B198" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="C198" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="D198" t="str">
-        <f t="shared" si="5"/>
-        <v>words/grandmother_US.wav</v>
+        <f t="shared" si="7"/>
+        <v>words/armour_US.wav</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="B199" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="C199" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="D199" t="str">
-        <f t="shared" ref="D199:D204" si="6">_xlfn.CONCAT("words/",A199,"_US.wav")</f>
-        <v>words/monkey_US.wav</v>
+        <f t="shared" si="7"/>
+        <v>words/syringe_US.wav</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
-        <v>69</v>
+        <v>81</v>
       </c>
       <c r="B200" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="C200" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="D200" t="str">
-        <f t="shared" si="6"/>
-        <v>words/musket_US.wav</v>
+        <f t="shared" si="7"/>
+        <v>words/manicure_US.wav</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="B201" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="C201" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="D201" t="str">
-        <f t="shared" si="6"/>
-        <v>words/sunscreen_US.wav</v>
+        <f t="shared" si="7"/>
+        <v>words/washer_US.wav</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="B202" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="C202" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="D202" t="str">
-        <f t="shared" si="6"/>
-        <v>words/sauerkraut_US.wav</v>
+        <f t="shared" si="7"/>
+        <v>words/espresso_US.wav</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="B203" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="C203" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="D203" t="str">
-        <f t="shared" si="6"/>
-        <v>words/matchbook_US.wav</v>
+        <f t="shared" si="7"/>
+        <v>words/email_US.wav</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="B204" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="C204" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="D204" t="str">
-        <f t="shared" si="6"/>
-        <v>words/eyeliner_US.wav</v>
+        <f t="shared" si="7"/>
+        <v>words/barbershop_US.wav</v>
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="B205" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="C205" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="D205" t="str">
-        <f>_xlfn.CONCAT("words/",A205,"_US.wav")</f>
-        <v>words/aftershave_US.wav</v>
+        <f t="shared" si="7"/>
+        <v>words/uranium_US.wav</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="B206" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="C206" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="D206" t="str">
-        <f t="shared" ref="D206:D225" si="7">_xlfn.CONCAT("words/",A206,"_US.wav")</f>
-        <v>words/corkscrew_US.wav</v>
+        <f>_xlfn.CONCAT("words/",A206,"_US.wav")</f>
+        <v>words/softball_US.wav</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="B207" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="C207" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="D207" t="str">
-        <f t="shared" si="7"/>
-        <v>words/thermos_US.wav</v>
+        <f t="shared" ref="D207:D226" si="8">_xlfn.CONCAT("words/",A207,"_US.wav")</f>
+        <v>words/bleach_US.wav</v>
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="B208" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="C208" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="D208" t="str">
-        <f t="shared" si="7"/>
-        <v>words/airstrip_US.wav</v>
+        <f t="shared" si="8"/>
+        <v>words/vocabulary_US.wav</v>
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="B209" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="C209" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="D209" t="str">
-        <f t="shared" si="7"/>
-        <v>words/fragrance_US.wav</v>
+        <f t="shared" si="8"/>
+        <v>words/gadget_US.wav</v>
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="B210" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="C210" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="D210" t="str">
-        <f t="shared" si="7"/>
-        <v>words/scrapbook_US.wav</v>
+        <f t="shared" si="8"/>
+        <v>words/grapefruit_US.wav</v>
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="B211" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="C211" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="D211" t="str">
-        <f t="shared" si="7"/>
-        <v>words/buttermilk_US.wav</v>
+        <f t="shared" si="8"/>
+        <v>words/plaster_US.wav</v>
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="B212" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="C212" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="D212" t="str">
-        <f t="shared" si="7"/>
-        <v>words/racquetball_US.wav</v>
+        <f t="shared" si="8"/>
+        <v>words/hydrogen_US.wav</v>
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="B213" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="C213" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="D213" t="str">
-        <f t="shared" si="7"/>
-        <v>words/skillet_US.wav</v>
+        <f t="shared" si="8"/>
+        <v>words/aquarium_US.wav</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="B214" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="C214" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="D214" t="str">
-        <f t="shared" si="7"/>
-        <v>words/podium_US.wav</v>
+        <f t="shared" si="8"/>
+        <v>words/boiler_US.wav</v>
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="B215" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="C215" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="D215" t="str">
-        <f t="shared" si="7"/>
-        <v>words/duffel_US.wav</v>
+        <f t="shared" si="8"/>
+        <v>words/pager_US.wav</v>
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="B216" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="C216" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="D216" t="str">
-        <f t="shared" si="7"/>
-        <v>words/eggnog_US.wav</v>
+        <f t="shared" si="8"/>
+        <v>words/jewellery_US.wav</v>
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="B217" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="C217" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="D217" t="str">
-        <f t="shared" si="7"/>
-        <v>words/folder_US.wav</v>
+        <f t="shared" si="8"/>
+        <v>words/mainland_US.wav</v>
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="B218" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="C218" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="D218" t="str">
-        <f t="shared" si="7"/>
-        <v>words/armour_US.wav</v>
+        <f t="shared" si="8"/>
+        <v>words/cinnamon_US.wav</v>
       </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="B219" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="C219" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="D219" t="str">
-        <f t="shared" si="7"/>
-        <v>words/syringe_US.wav</v>
+        <f t="shared" si="8"/>
+        <v>words/fiber_US.wav</v>
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="B220" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="C220" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="D220" t="str">
-        <f t="shared" si="7"/>
-        <v>words/manicure_US.wav</v>
+        <f t="shared" si="8"/>
+        <v>words/bagel_US.wav</v>
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
-        <v>90</v>
+        <v>102</v>
       </c>
       <c r="B221" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="C221" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="D221" t="str">
-        <f t="shared" si="7"/>
-        <v>words/washer_US.wav</v>
+        <f t="shared" si="8"/>
+        <v>words/casket_US.wav</v>
       </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="B222" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="C222" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="D222" t="str">
-        <f t="shared" si="7"/>
-        <v>words/espresso_US.wav</v>
+        <f t="shared" si="8"/>
+        <v>words/telegraph_US.wav</v>
       </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
-        <v>92</v>
+        <v>104</v>
       </c>
       <c r="B223" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="C223" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="D223" t="str">
-        <f t="shared" si="7"/>
-        <v>words/email_US.wav</v>
+        <f t="shared" si="8"/>
+        <v>words/laptop_US.wav</v>
       </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
-        <v>93</v>
+        <v>105</v>
       </c>
       <c r="B224" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="C224" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="D224" t="str">
-        <f t="shared" si="7"/>
-        <v>words/barbershop_US.wav</v>
+        <f t="shared" si="8"/>
+        <v>words/yearbook_US.wav</v>
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
-        <v>94</v>
+        <v>106</v>
       </c>
       <c r="B225" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="C225" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="D225" t="str">
-        <f t="shared" si="7"/>
-        <v>words/uranium_US.wav</v>
+        <f t="shared" si="8"/>
+        <v>words/toothbrush_US.wav</v>
       </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="B226" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="C226" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="D226" t="str">
-        <f>_xlfn.CONCAT("words/",A226,"_US.wav")</f>
-        <v>words/softball_US.wav</v>
+        <f t="shared" si="8"/>
+        <v>words/playground_US.wav</v>
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
-        <v>96</v>
+        <v>108</v>
       </c>
       <c r="B227" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="C227" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="D227" t="str">
-        <f t="shared" ref="D227:D248" si="8">_xlfn.CONCAT("words/",A227,"_US.wav")</f>
-        <v>words/bleach_US.wav</v>
+        <f>_xlfn.CONCAT("words/",A227,"_US.wav")</f>
+        <v>words/freezer_US.wav</v>
       </c>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
-        <v>97</v>
+        <v>109</v>
       </c>
       <c r="B228" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="C228" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="D228" t="str">
-        <f t="shared" si="8"/>
-        <v>words/vocabulary_US.wav</v>
+        <f t="shared" ref="D228:D241" si="9">_xlfn.CONCAT("words/",A228,"_US.wav")</f>
+        <v>words/freeway_US.wav</v>
       </c>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
-        <v>98</v>
+        <v>110</v>
       </c>
       <c r="B229" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="C229" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="D229" t="str">
-        <f t="shared" si="8"/>
-        <v>words/gadget_US.wav</v>
+        <f t="shared" si="9"/>
+        <v>words/makeup_US.wav</v>
       </c>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
-        <v>99</v>
+        <v>111</v>
       </c>
       <c r="B230" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="C230" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="D230" t="str">
-        <f t="shared" si="8"/>
-        <v>words/grapefruit_US.wav</v>
+        <f t="shared" si="9"/>
+        <v>words/arrow_US.wav</v>
       </c>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
-        <v>100</v>
+        <v>112</v>
       </c>
       <c r="B231" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="C231" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="D231" t="str">
-        <f t="shared" si="8"/>
-        <v>words/cupboard_US.wav</v>
+        <f t="shared" si="9"/>
+        <v>words/dynamite_US.wav</v>
       </c>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
-        <v>101</v>
+        <v>113</v>
       </c>
       <c r="B232" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="C232" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="D232" t="str">
-        <f t="shared" si="8"/>
-        <v>words/plaster_US.wav</v>
+        <f t="shared" si="9"/>
+        <v>words/photograph_US.wav</v>
       </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
-        <v>102</v>
+        <v>114</v>
       </c>
       <c r="B233" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="C233" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="D233" t="str">
-        <f t="shared" si="8"/>
-        <v>words/hydrogen_US.wav</v>
+        <f t="shared" si="9"/>
+        <v>words/missile_US.wav</v>
       </c>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
-        <v>103</v>
+        <v>115</v>
       </c>
       <c r="B234" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="C234" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="D234" t="str">
-        <f t="shared" si="8"/>
-        <v>words/aquarium_US.wav</v>
+        <f t="shared" si="9"/>
+        <v>words/basket_US.wav</v>
       </c>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
-        <v>104</v>
+        <v>116</v>
       </c>
       <c r="B235" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="C235" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="D235" t="str">
-        <f t="shared" si="8"/>
-        <v>words/boiler_US.wav</v>
+        <f t="shared" si="9"/>
+        <v>words/museum_US.wav</v>
       </c>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
-        <v>105</v>
+        <v>117</v>
       </c>
       <c r="B236" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="C236" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="D236" t="str">
-        <f t="shared" si="8"/>
-        <v>words/pager_US.wav</v>
+        <f t="shared" si="9"/>
+        <v>words/palace_US.wav</v>
       </c>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
-        <v>106</v>
+        <v>118</v>
       </c>
       <c r="B237" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="C237" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="D237" t="str">
-        <f t="shared" si="8"/>
-        <v>words/jewellery_US.wav</v>
+        <f t="shared" si="9"/>
+        <v>words/diamond_US.wav</v>
       </c>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
-        <v>107</v>
+        <v>119</v>
       </c>
       <c r="B238" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="C238" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="D238" t="str">
-        <f t="shared" si="8"/>
-        <v>words/mainland_US.wav</v>
+        <f t="shared" si="9"/>
+        <v>words/butter_US.wav</v>
       </c>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
-        <v>108</v>
+        <v>120</v>
       </c>
       <c r="B239" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="C239" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="D239" t="str">
-        <f t="shared" si="8"/>
-        <v>words/cinnamon_US.wav</v>
+        <f t="shared" si="9"/>
+        <v>words/wallet_US.wav</v>
       </c>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="B240" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="C240" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="D240" t="str">
-        <f t="shared" si="8"/>
-        <v>words/fiber_US.wav</v>
+        <f t="shared" si="9"/>
+        <v>words/garage_US.wav</v>
       </c>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
-        <v>110</v>
+        <v>122</v>
       </c>
       <c r="B241" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="C241" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="D241" t="str">
-        <f t="shared" si="8"/>
-        <v>words/bagel_US.wav</v>
+        <f t="shared" si="9"/>
+        <v>words/pizza_US.wav</v>
       </c>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
-        <v>111</v>
+        <v>3</v>
       </c>
       <c r="B242" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
       <c r="C242" t="s">
-        <v>138</v>
+        <v>125</v>
       </c>
       <c r="D242" t="str">
-        <f t="shared" si="8"/>
-        <v>words/casket_US.wav</v>
+        <f>_xlfn.CONCAT("words/",A242,"_TR.wav")</f>
+        <v>words/shellfish_TR.wav</v>
       </c>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
-        <v>112</v>
+        <v>4</v>
       </c>
       <c r="B243" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
       <c r="C243" t="s">
-        <v>138</v>
+        <v>125</v>
       </c>
       <c r="D243" t="str">
-        <f t="shared" si="8"/>
-        <v>words/telegraph_US.wav</v>
+        <f t="shared" ref="D243:D300" si="10">_xlfn.CONCAT("words/",A243,"_TR.wav")</f>
+        <v>words/bloodhound_TR.wav</v>
       </c>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
-        <v>113</v>
+        <v>5</v>
       </c>
       <c r="B244" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
       <c r="C244" t="s">
-        <v>138</v>
+        <v>125</v>
       </c>
       <c r="D244" t="str">
-        <f t="shared" si="8"/>
-        <v>words/laptop_US.wav</v>
+        <f t="shared" si="10"/>
+        <v>words/antelope_TR.wav</v>
       </c>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
-        <v>114</v>
+        <v>6</v>
       </c>
       <c r="B245" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
       <c r="C245" t="s">
-        <v>138</v>
+        <v>125</v>
       </c>
       <c r="D245" t="str">
-        <f t="shared" si="8"/>
-        <v>words/yearbook_US.wav</v>
+        <f t="shared" si="10"/>
+        <v>words/woodpecker_TR.wav</v>
       </c>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
-        <v>115</v>
+        <v>7</v>
       </c>
       <c r="B246" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
       <c r="C246" t="s">
-        <v>138</v>
+        <v>125</v>
       </c>
       <c r="D246" t="str">
-        <f t="shared" si="8"/>
-        <v>words/toothbrush_US.wav</v>
+        <f t="shared" si="10"/>
+        <v>words/swordfish_TR.wav</v>
       </c>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
-        <v>116</v>
+        <v>8</v>
       </c>
       <c r="B247" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
       <c r="C247" t="s">
-        <v>138</v>
+        <v>125</v>
       </c>
       <c r="D247" t="str">
-        <f t="shared" si="8"/>
-        <v>words/cocoa_US.wav</v>
+        <f t="shared" si="10"/>
+        <v>words/walrus_TR.wav</v>
       </c>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
-        <v>117</v>
+        <v>9</v>
       </c>
       <c r="B248" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
       <c r="C248" t="s">
-        <v>138</v>
+        <v>125</v>
       </c>
       <c r="D248" t="str">
-        <f t="shared" si="8"/>
-        <v>words/playground_US.wav</v>
+        <f t="shared" si="10"/>
+        <v>words/tortoise_TR.wav</v>
       </c>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
-        <v>118</v>
+        <v>10</v>
       </c>
       <c r="B249" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
       <c r="C249" t="s">
-        <v>138</v>
+        <v>125</v>
       </c>
       <c r="D249" t="str">
-        <f>_xlfn.CONCAT("words/",A249,"_US.wav")</f>
-        <v>words/freezer_US.wav</v>
+        <f t="shared" si="10"/>
+        <v>words/caterpillar_TR.wav</v>
       </c>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
-        <v>119</v>
+        <v>11</v>
       </c>
       <c r="B250" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
       <c r="C250" t="s">
-        <v>138</v>
+        <v>125</v>
       </c>
       <c r="D250" t="str">
-        <f t="shared" ref="D250:D266" si="9">_xlfn.CONCAT("words/",A250,"_US.wav")</f>
-        <v>words/freeway_US.wav</v>
+        <f t="shared" si="10"/>
+        <v>words/piranha_TR.wav</v>
       </c>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
-        <v>120</v>
+        <v>12</v>
       </c>
       <c r="B251" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
       <c r="C251" t="s">
-        <v>138</v>
+        <v>125</v>
       </c>
       <c r="D251" t="str">
-        <f t="shared" si="9"/>
-        <v>words/makeup_US.wav</v>
+        <f t="shared" si="10"/>
+        <v>words/chimpanzee_TR.wav</v>
       </c>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
-        <v>121</v>
+        <v>13</v>
       </c>
       <c r="B252" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
       <c r="C252" t="s">
-        <v>138</v>
+        <v>125</v>
       </c>
       <c r="D252" t="str">
-        <f t="shared" si="9"/>
-        <v>words/poster_US.wav</v>
+        <f t="shared" si="10"/>
+        <v>words/gazelle_TR.wav</v>
       </c>
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
-        <v>122</v>
+        <v>14</v>
       </c>
       <c r="B253" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
       <c r="C253" t="s">
-        <v>138</v>
+        <v>125</v>
       </c>
       <c r="D253" t="str">
-        <f t="shared" si="9"/>
-        <v>words/arrow_US.wav</v>
+        <f t="shared" si="10"/>
+        <v>words/seagull_TR.wav</v>
       </c>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
-        <v>123</v>
+        <v>15</v>
       </c>
       <c r="B254" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
       <c r="C254" t="s">
-        <v>138</v>
+        <v>125</v>
       </c>
       <c r="D254" t="str">
-        <f t="shared" si="9"/>
-        <v>words/dynamite_US.wav</v>
+        <f t="shared" si="10"/>
+        <v>words/catfish_TR.wav</v>
       </c>
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
-        <v>124</v>
+        <v>16</v>
       </c>
       <c r="B255" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
       <c r="C255" t="s">
-        <v>138</v>
+        <v>125</v>
       </c>
       <c r="D255" t="str">
-        <f t="shared" si="9"/>
-        <v>words/photograph_US.wav</v>
+        <f t="shared" si="10"/>
+        <v>words/critter_TR.wav</v>
       </c>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
-        <v>125</v>
+        <v>17</v>
       </c>
       <c r="B256" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
       <c r="C256" t="s">
-        <v>138</v>
+        <v>125</v>
       </c>
       <c r="D256" t="str">
-        <f t="shared" si="9"/>
-        <v>words/missile_US.wav</v>
+        <f t="shared" si="10"/>
+        <v>words/giraffe_TR.wav</v>
       </c>
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
-        <v>126</v>
+        <v>18</v>
       </c>
       <c r="B257" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
       <c r="C257" t="s">
-        <v>138</v>
+        <v>125</v>
       </c>
       <c r="D257" t="str">
-        <f t="shared" si="9"/>
-        <v>words/basket_US.wav</v>
+        <f t="shared" si="10"/>
+        <v>words/ferret_TR.wav</v>
       </c>
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
-        <v>127</v>
+        <v>19</v>
       </c>
       <c r="B258" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
       <c r="C258" t="s">
-        <v>138</v>
+        <v>125</v>
       </c>
       <c r="D258" t="str">
-        <f t="shared" si="9"/>
-        <v>words/museum_US.wav</v>
+        <f t="shared" si="10"/>
+        <v>words/rattlesnake_TR.wav</v>
       </c>
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
-        <v>128</v>
+        <v>20</v>
       </c>
       <c r="B259" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
       <c r="C259" t="s">
-        <v>138</v>
+        <v>125</v>
       </c>
       <c r="D259" t="str">
-        <f t="shared" si="9"/>
-        <v>words/palace_US.wav</v>
+        <f t="shared" si="10"/>
+        <v>words/octopus_TR.wav</v>
       </c>
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
-        <v>129</v>
+        <v>21</v>
       </c>
       <c r="B260" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
       <c r="C260" t="s">
-        <v>138</v>
+        <v>125</v>
       </c>
       <c r="D260" t="str">
-        <f t="shared" si="9"/>
-        <v>words/diamond_US.wav</v>
+        <f t="shared" si="10"/>
+        <v>words/livestock_TR.wav</v>
       </c>
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
-        <v>130</v>
+        <v>22</v>
       </c>
       <c r="B261" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
       <c r="C261" t="s">
-        <v>138</v>
+        <v>125</v>
       </c>
       <c r="D261" t="str">
-        <f t="shared" si="9"/>
-        <v>words/butter_US.wav</v>
+        <f t="shared" si="10"/>
+        <v>words/beetle_TR.wav</v>
       </c>
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
-        <v>131</v>
+        <v>23</v>
       </c>
       <c r="B262" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
       <c r="C262" t="s">
-        <v>138</v>
+        <v>125</v>
       </c>
       <c r="D262" t="str">
-        <f t="shared" si="9"/>
-        <v>words/vehicle_US.wav</v>
+        <f t="shared" si="10"/>
+        <v>words/possum_TR.wav</v>
       </c>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
-        <v>132</v>
+        <v>24</v>
       </c>
       <c r="B263" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
       <c r="C263" t="s">
-        <v>138</v>
+        <v>125</v>
       </c>
       <c r="D263" t="str">
-        <f t="shared" si="9"/>
-        <v>words/wallet_US.wav</v>
+        <f t="shared" si="10"/>
+        <v>words/rhino_TR.wav</v>
       </c>
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
-        <v>133</v>
+        <v>25</v>
       </c>
       <c r="B264" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
       <c r="C264" t="s">
-        <v>138</v>
+        <v>125</v>
       </c>
       <c r="D264" t="str">
-        <f t="shared" si="9"/>
-        <v>words/garage_US.wav</v>
+        <f t="shared" si="10"/>
+        <v>words/panda_TR.wav</v>
       </c>
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
-        <v>134</v>
+        <v>26</v>
       </c>
       <c r="B265" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
       <c r="C265" t="s">
-        <v>138</v>
+        <v>125</v>
       </c>
       <c r="D265" t="str">
-        <f t="shared" si="9"/>
-        <v>words/pizza_US.wav</v>
+        <f t="shared" si="10"/>
+        <v>words/hamster_TR.wav</v>
       </c>
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="B266" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="C266" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="D266" t="str">
-        <f>_xlfn.CONCAT("words/",A266,"_TR.wav")</f>
-        <v>words/shellfish_TR.wav</v>
+        <f t="shared" si="10"/>
+        <v>words/crocodile_TR.wav</v>
       </c>
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="B267" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="C267" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="D267" t="str">
-        <f t="shared" ref="D267:D330" si="10">_xlfn.CONCAT("words/",A267,"_TR.wav")</f>
-        <v>words/bloodhound_TR.wav</v>
+        <f t="shared" si="10"/>
+        <v>words/kangaroo_TR.wav</v>
       </c>
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="B268" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="C268" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="D268" t="str">
         <f t="shared" si="10"/>
-        <v>words/antelope_TR.wav</v>
+        <v>words/corral_TR.wav</v>
       </c>
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="B269" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="C269" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="D269" t="str">
         <f t="shared" si="10"/>
-        <v>words/woodpecker_TR.wav</v>
+        <v>words/parasite_TR.wav</v>
       </c>
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="B270" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="C270" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="D270" t="str">
         <f t="shared" si="10"/>
-        <v>words/swordfish_TR.wav</v>
+        <v>words/zebra_TR.wav</v>
       </c>
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="B271" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="C271" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="D271" t="str">
         <f t="shared" si="10"/>
-        <v>words/parakeet_TR.wav</v>
+        <v>words/predator_TR.wav</v>
       </c>
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="B272" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="C272" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="D272" t="str">
         <f t="shared" si="10"/>
-        <v>words/walrus_TR.wav</v>
+        <v>words/scorpion_TR.wav</v>
       </c>
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="B273" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="C273" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="D273" t="str">
         <f t="shared" si="10"/>
-        <v>words/tortoise_TR.wav</v>
+        <v>words/dolphin_TR.wav</v>
       </c>
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="B274" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="C274" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="D274" t="str">
         <f t="shared" si="10"/>
-        <v>words/caterpillar_TR.wav</v>
+        <v>words/cricket_TR.wav</v>
       </c>
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="B275" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="C275" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="D275" t="str">
         <f t="shared" si="10"/>
-        <v>words/piranha_TR.wav</v>
+        <v>words/penguin_TR.wav</v>
       </c>
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="B276" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="C276" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="D276" t="str">
         <f t="shared" si="10"/>
-        <v>words/chimpanzee_TR.wav</v>
+        <v>words/cuckoo_TR.wav</v>
       </c>
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="B277" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="C277" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="D277" t="str">
         <f t="shared" si="10"/>
-        <v>words/gazelle_TR.wav</v>
+        <v>words/fiancee_TR.wav</v>
       </c>
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="B278" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="C278" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="D278" t="str">
         <f t="shared" si="10"/>
-        <v>words/seagull_TR.wav</v>
+        <v>words/bacteria_TR.wav</v>
       </c>
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="B279" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="C279" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="D279" t="str">
         <f t="shared" si="10"/>
-        <v>words/catfish_TR.wav</v>
+        <v>words/goldfish_TR.wav</v>
       </c>
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="B280" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="C280" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="D280" t="str">
         <f t="shared" si="10"/>
-        <v>words/critter_TR.wav</v>
+        <v>words/oyster_TR.wav</v>
       </c>
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="B281" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="C281" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="D281" t="str">
         <f t="shared" si="10"/>
-        <v>words/giraffe_TR.wav</v>
+        <v>words/insect_TR.wav</v>
       </c>
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="B282" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="C282" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="D282" t="str">
         <f t="shared" si="10"/>
-        <v>words/python_TR.wav</v>
+        <v>words/parrot_TR.wav</v>
       </c>
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="B283" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="C283" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="D283" t="str">
         <f t="shared" si="10"/>
-        <v>words/ferret_TR.wav</v>
+        <v>words/reindeer_TR.wav</v>
       </c>
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="B284" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="C284" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="D284" t="str">
         <f t="shared" si="10"/>
-        <v>words/rattlesnake_TR.wav</v>
+        <v>words/kitten_TR.wav</v>
       </c>
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="B285" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="C285" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="D285" t="str">
         <f t="shared" si="10"/>
-        <v>words/octopus_TR.wav</v>
+        <v>words/camel_TR.wav</v>
       </c>
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="B286" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="C286" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="D286" t="str">
         <f t="shared" si="10"/>
-        <v>words/livestock_TR.wav</v>
+        <v>words/donkey_TR.wav</v>
       </c>
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="B287" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="C287" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="D287" t="str">
         <f t="shared" si="10"/>
-        <v>words/beetle_TR.wav</v>
+        <v>words/butterfly_TR.wav</v>
       </c>
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="B288" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="C288" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="D288" t="str">
         <f t="shared" si="10"/>
-        <v>words/possum_TR.wav</v>
+        <v>words/lion_TR.wav</v>
       </c>
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="B289" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="C289" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="D289" t="str">
         <f t="shared" si="10"/>
-        <v>words/rhino_TR.wav</v>
+        <v>words/salmon_TR.wav</v>
       </c>
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
-        <v>27</v>
+        <v>51</v>
       </c>
       <c r="B290" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="C290" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="D290" t="str">
         <f t="shared" si="10"/>
-        <v>words/panda_TR.wav</v>
+        <v>words/tuna_TR.wav</v>
       </c>
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
-        <v>28</v>
+        <v>52</v>
       </c>
       <c r="B291" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="C291" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="D291" t="str">
         <f t="shared" si="10"/>
-        <v>words/hamster_TR.wav</v>
+        <v>words/spider_TR.wav</v>
       </c>
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
-        <v>29</v>
+        <v>53</v>
       </c>
       <c r="B292" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="C292" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="D292" t="str">
         <f t="shared" si="10"/>
-        <v>words/crocodile_TR.wav</v>
+        <v>words/elephant_TR.wav</v>
       </c>
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
-        <v>30</v>
+        <v>54</v>
       </c>
       <c r="B293" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="C293" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="D293" t="str">
         <f t="shared" si="10"/>
-        <v>words/kangaroo_TR.wav</v>
+        <v>words/goose_TR.wav</v>
       </c>
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="B294" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="C294" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="D294" t="str">
         <f t="shared" si="10"/>
-        <v>words/corral_TR.wav</v>
+        <v>words/tiger_TR.wav</v>
       </c>
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
-        <v>32</v>
+        <v>56</v>
       </c>
       <c r="B295" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="C295" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="D295" t="str">
         <f t="shared" si="10"/>
-        <v>words/parasite_TR.wav</v>
+        <v>words/mouse_TR.wav</v>
       </c>
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
-        <v>33</v>
+        <v>57</v>
       </c>
       <c r="B296" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="C296" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="D296" t="str">
         <f t="shared" si="10"/>
-        <v>words/newborn_TR.wav</v>
+        <v>words/rabbit_TR.wav</v>
       </c>
     </row>
     <row r="297" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
-        <v>34</v>
+        <v>58</v>
       </c>
       <c r="B297" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="C297" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="D297" t="str">
         <f t="shared" si="10"/>
-        <v>words/zebra_TR.wav</v>
+        <v>words/snake_TR.wav</v>
       </c>
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
-        <v>35</v>
+        <v>59</v>
       </c>
       <c r="B298" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="C298" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="D298" t="str">
         <f t="shared" si="10"/>
-        <v>words/predator_TR.wav</v>
+        <v>words/turkey_TR.wav</v>
       </c>
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="B299" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="C299" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="D299" t="str">
         <f t="shared" si="10"/>
-        <v>words/scorpion_TR.wav</v>
+        <v>words/flower_TR.wav</v>
       </c>
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
-        <v>37</v>
+        <v>61</v>
       </c>
       <c r="B300" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="C300" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="D300" t="str">
         <f t="shared" si="10"/>
-        <v>words/dolphin_TR.wav</v>
+        <v>words/grandmother_TR.wav</v>
       </c>
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
-        <v>38</v>
+        <v>62</v>
       </c>
       <c r="B301" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="C301" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="D301" t="str">
-        <f t="shared" si="10"/>
-        <v>words/cricket_TR.wav</v>
+        <f t="shared" ref="D301:D359" si="11">_xlfn.CONCAT("words/",A301,"_TR.wav")</f>
+        <v>words/monkey_TR.wav</v>
       </c>
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
-        <v>39</v>
+        <v>63</v>
       </c>
       <c r="B302" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="C302" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="D302" t="str">
-        <f t="shared" si="10"/>
-        <v>words/penguin_TR.wav</v>
+        <f t="shared" si="11"/>
+        <v>words/musket_TR.wav</v>
       </c>
     </row>
     <row r="303" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
-        <v>40</v>
+        <v>64</v>
       </c>
       <c r="B303" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="C303" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="D303" t="str">
-        <f t="shared" si="10"/>
-        <v>words/cuckoo_TR.wav</v>
+        <f t="shared" si="11"/>
+        <v>words/sunscreen_TR.wav</v>
       </c>
     </row>
     <row r="304" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="B304" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="C304" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="D304" t="str">
-        <f t="shared" si="10"/>
-        <v>words/fiancee_TR.wav</v>
+        <f t="shared" si="11"/>
+        <v>words/sauerkraut_TR.wav</v>
       </c>
     </row>
     <row r="305" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
-        <v>42</v>
+        <v>66</v>
       </c>
       <c r="B305" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="C305" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="D305" t="str">
-        <f t="shared" si="10"/>
-        <v>words/bacteria_TR.wav</v>
+        <f t="shared" si="11"/>
+        <v>words/matchbook_TR.wav</v>
       </c>
     </row>
     <row r="306" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
-        <v>43</v>
+        <v>67</v>
       </c>
       <c r="B306" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="C306" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="D306" t="str">
-        <f t="shared" si="10"/>
-        <v>words/goldfish_TR.wav</v>
+        <f t="shared" si="11"/>
+        <v>words/eyeliner_TR.wav</v>
       </c>
     </row>
     <row r="307" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
-        <v>44</v>
+        <v>68</v>
       </c>
       <c r="B307" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="C307" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="D307" t="str">
-        <f t="shared" si="10"/>
-        <v>words/oyster_TR.wav</v>
+        <f t="shared" si="11"/>
+        <v>words/aftershave_TR.wav</v>
       </c>
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
-        <v>45</v>
+        <v>69</v>
       </c>
       <c r="B308" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="C308" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="D308" t="str">
-        <f t="shared" si="10"/>
-        <v>words/insect_TR.wav</v>
+        <f t="shared" si="11"/>
+        <v>words/corkscrew_TR.wav</v>
       </c>
     </row>
     <row r="309" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
-        <v>46</v>
+        <v>70</v>
       </c>
       <c r="B309" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="C309" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="D309" t="str">
-        <f t="shared" si="10"/>
-        <v>words/parrot_TR.wav</v>
+        <f t="shared" si="11"/>
+        <v>words/airstrip_TR.wav</v>
       </c>
     </row>
     <row r="310" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
-        <v>47</v>
+        <v>71</v>
       </c>
       <c r="B310" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="C310" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="D310" t="str">
-        <f t="shared" si="10"/>
-        <v>words/reindeer_TR.wav</v>
+        <f t="shared" si="11"/>
+        <v>words/fragrance_TR.wav</v>
       </c>
     </row>
     <row r="311" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
-        <v>48</v>
+        <v>72</v>
       </c>
       <c r="B311" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="C311" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="D311" t="str">
-        <f t="shared" si="10"/>
-        <v>words/kitten_TR.wav</v>
+        <f t="shared" si="11"/>
+        <v>words/scrapbook_TR.wav</v>
       </c>
     </row>
     <row r="312" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
-        <v>49</v>
+        <v>73</v>
       </c>
       <c r="B312" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="C312" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="D312" t="str">
-        <f t="shared" si="10"/>
-        <v>words/camel_TR.wav</v>
+        <f t="shared" si="11"/>
+        <v>words/buttermilk_TR.wav</v>
       </c>
     </row>
     <row r="313" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
-        <v>50</v>
+        <v>74</v>
       </c>
       <c r="B313" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="C313" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="D313" t="str">
-        <f t="shared" si="10"/>
-        <v>words/donkey_TR.wav</v>
+        <f t="shared" si="11"/>
+        <v>words/racquetball_TR.wav</v>
       </c>
     </row>
     <row r="314" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
-        <v>51</v>
+        <v>75</v>
       </c>
       <c r="B314" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="C314" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="D314" t="str">
-        <f t="shared" si="10"/>
-        <v>words/leopard_TR.wav</v>
+        <f t="shared" si="11"/>
+        <v>words/podium_TR.wav</v>
       </c>
     </row>
     <row r="315" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
-        <v>52</v>
+        <v>76</v>
       </c>
       <c r="B315" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="C315" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="D315" t="str">
-        <f t="shared" si="10"/>
-        <v>words/squirrel_TR.wav</v>
+        <f t="shared" si="11"/>
+        <v>words/duffel_TR.wav</v>
       </c>
     </row>
     <row r="316" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
-        <v>53</v>
+        <v>77</v>
       </c>
       <c r="B316" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="C316" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="D316" t="str">
-        <f t="shared" si="10"/>
-        <v>words/butterfly_TR.wav</v>
+        <f t="shared" si="11"/>
+        <v>words/eggnog_TR.wav</v>
       </c>
     </row>
     <row r="317" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
-        <v>54</v>
+        <v>78</v>
       </c>
       <c r="B317" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="C317" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="D317" t="str">
-        <f t="shared" si="10"/>
-        <v>words/lion_TR.wav</v>
+        <f t="shared" si="11"/>
+        <v>words/folder_TR.wav</v>
       </c>
     </row>
     <row r="318" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
-        <v>55</v>
+        <v>79</v>
       </c>
       <c r="B318" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="C318" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="D318" t="str">
-        <f t="shared" si="10"/>
-        <v>words/salmon_TR.wav</v>
+        <f t="shared" si="11"/>
+        <v>words/armour_TR.wav</v>
       </c>
     </row>
     <row r="319" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
-        <v>56</v>
+        <v>80</v>
       </c>
       <c r="B319" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="C319" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="D319" t="str">
-        <f t="shared" si="10"/>
-        <v>words/tuna_TR.wav</v>
+        <f t="shared" si="11"/>
+        <v>words/syringe_TR.wav</v>
       </c>
     </row>
     <row r="320" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
-        <v>57</v>
+        <v>81</v>
       </c>
       <c r="B320" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="C320" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="D320" t="str">
-        <f t="shared" si="10"/>
-        <v>words/spider_TR.wav</v>
+        <f t="shared" si="11"/>
+        <v>words/manicure_TR.wav</v>
       </c>
     </row>
     <row r="321" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
-        <v>58</v>
+        <v>82</v>
       </c>
       <c r="B321" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="C321" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="D321" t="str">
-        <f t="shared" si="10"/>
-        <v>words/elephant_TR.wav</v>
+        <f t="shared" si="11"/>
+        <v>words/washer_TR.wav</v>
       </c>
     </row>
     <row r="322" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A322" t="s">
-        <v>59</v>
+        <v>83</v>
       </c>
       <c r="B322" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="C322" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="D322" t="str">
-        <f t="shared" si="10"/>
-        <v>words/goose_TR.wav</v>
+        <f t="shared" si="11"/>
+        <v>words/espresso_TR.wav</v>
       </c>
     </row>
     <row r="323" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
-        <v>60</v>
+        <v>84</v>
       </c>
       <c r="B323" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="C323" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="D323" t="str">
-        <f t="shared" si="10"/>
-        <v>words/cattle_TR.wav</v>
+        <f t="shared" si="11"/>
+        <v>words/email_TR.wav</v>
       </c>
     </row>
     <row r="324" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A324" t="s">
-        <v>61</v>
+        <v>85</v>
       </c>
       <c r="B324" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="C324" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="D324" t="str">
-        <f t="shared" si="10"/>
-        <v>words/tiger_TR.wav</v>
+        <f t="shared" si="11"/>
+        <v>words/barbershop_TR.wav</v>
       </c>
     </row>
     <row r="325" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
-        <v>62</v>
+        <v>86</v>
       </c>
       <c r="B325" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="C325" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="D325" t="str">
-        <f t="shared" si="10"/>
-        <v>words/mouse_TR.wav</v>
+        <f t="shared" si="11"/>
+        <v>words/uranium_TR.wav</v>
       </c>
     </row>
     <row r="326" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
-        <v>63</v>
+        <v>87</v>
       </c>
       <c r="B326" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="C326" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="D326" t="str">
-        <f t="shared" si="10"/>
-        <v>words/rabbit_TR.wav</v>
+        <f t="shared" si="11"/>
+        <v>words/softball_TR.wav</v>
       </c>
     </row>
     <row r="327" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
-        <v>64</v>
+        <v>88</v>
       </c>
       <c r="B327" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="C327" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="D327" t="str">
-        <f t="shared" si="10"/>
-        <v>words/snake_TR.wav</v>
+        <f t="shared" si="11"/>
+        <v>words/bleach_TR.wav</v>
       </c>
     </row>
     <row r="328" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
-        <v>65</v>
+        <v>89</v>
       </c>
       <c r="B328" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="C328" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="D328" t="str">
-        <f t="shared" si="10"/>
-        <v>words/turkey_TR.wav</v>
+        <f t="shared" si="11"/>
+        <v>words/vocabulary_TR.wav</v>
       </c>
     </row>
     <row r="329" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
-        <v>66</v>
+        <v>90</v>
       </c>
       <c r="B329" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="C329" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="D329" t="str">
-        <f t="shared" si="10"/>
-        <v>words/flower_TR.wav</v>
+        <f t="shared" si="11"/>
+        <v>words/gadget_TR.wav</v>
       </c>
     </row>
     <row r="330" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
-        <v>67</v>
+        <v>91</v>
       </c>
       <c r="B330" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="C330" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="D330" t="str">
-        <f t="shared" si="10"/>
-        <v>words/grandmother_TR.wav</v>
+        <f t="shared" si="11"/>
+        <v>words/grapefruit_TR.wav</v>
       </c>
     </row>
     <row r="331" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
-        <v>68</v>
+        <v>92</v>
       </c>
       <c r="B331" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="C331" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="D331" t="str">
-        <f t="shared" ref="D331:D395" si="11">_xlfn.CONCAT("words/",A331,"_TR.wav")</f>
-        <v>words/monkey_TR.wav</v>
+        <f t="shared" si="11"/>
+        <v>words/plaster_TR.wav</v>
       </c>
     </row>
     <row r="332" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A332" t="s">
-        <v>69</v>
+        <v>93</v>
       </c>
       <c r="B332" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="C332" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="D332" t="str">
         <f t="shared" si="11"/>
-        <v>words/musket_TR.wav</v>
+        <v>words/hydrogen_TR.wav</v>
       </c>
     </row>
     <row r="333" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A333" t="s">
-        <v>70</v>
+        <v>94</v>
       </c>
       <c r="B333" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="C333" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="D333" t="str">
         <f t="shared" si="11"/>
-        <v>words/sunscreen_TR.wav</v>
+        <v>words/aquarium_TR.wav</v>
       </c>
     </row>
     <row r="334" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A334" t="s">
-        <v>71</v>
+        <v>95</v>
       </c>
       <c r="B334" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="C334" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="D334" t="str">
         <f t="shared" si="11"/>
-        <v>words/sauerkraut_TR.wav</v>
+        <v>words/boiler_TR.wav</v>
       </c>
     </row>
     <row r="335" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A335" t="s">
-        <v>72</v>
+        <v>96</v>
       </c>
       <c r="B335" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="C335" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="D335" t="str">
         <f t="shared" si="11"/>
-        <v>words/matchbook_TR.wav</v>
+        <v>words/pager_TR.wav</v>
       </c>
     </row>
     <row r="336" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A336" t="s">
-        <v>73</v>
+        <v>97</v>
       </c>
       <c r="B336" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="C336" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="D336" t="str">
         <f t="shared" si="11"/>
-        <v>words/eyeliner_TR.wav</v>
+        <v>words/jewellery_TR.wav</v>
       </c>
     </row>
     <row r="337" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A337" t="s">
-        <v>74</v>
+        <v>98</v>
       </c>
       <c r="B337" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="C337" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="D337" t="str">
         <f t="shared" si="11"/>
-        <v>words/aftershave_TR.wav</v>
+        <v>words/mainland_TR.wav</v>
       </c>
     </row>
     <row r="338" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A338" t="s">
-        <v>75</v>
+        <v>99</v>
       </c>
       <c r="B338" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="C338" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="D338" t="str">
         <f t="shared" si="11"/>
-        <v>words/corkscrew_TR.wav</v>
+        <v>words/cinnamon_TR.wav</v>
       </c>
     </row>
     <row r="339" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A339" t="s">
-        <v>76</v>
+        <v>100</v>
       </c>
       <c r="B339" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="C339" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="D339" t="str">
         <f t="shared" si="11"/>
-        <v>words/thermos_TR.wav</v>
+        <v>words/fiber_TR.wav</v>
       </c>
     </row>
     <row r="340" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A340" t="s">
-        <v>77</v>
+        <v>101</v>
       </c>
       <c r="B340" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="C340" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="D340" t="str">
         <f t="shared" si="11"/>
-        <v>words/airstrip_TR.wav</v>
+        <v>words/bagel_TR.wav</v>
       </c>
     </row>
     <row r="341" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A341" t="s">
-        <v>78</v>
+        <v>102</v>
       </c>
       <c r="B341" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="C341" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="D341" t="str">
         <f t="shared" si="11"/>
-        <v>words/fragrance_TR.wav</v>
+        <v>words/casket_TR.wav</v>
       </c>
     </row>
     <row r="342" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A342" t="s">
-        <v>79</v>
+        <v>103</v>
       </c>
       <c r="B342" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="C342" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="D342" t="str">
         <f t="shared" si="11"/>
-        <v>words/scrapbook_TR.wav</v>
+        <v>words/telegraph_TR.wav</v>
       </c>
     </row>
     <row r="343" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A343" t="s">
-        <v>80</v>
+        <v>104</v>
       </c>
       <c r="B343" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="C343" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="D343" t="str">
         <f t="shared" si="11"/>
-        <v>words/buttermilk_TR.wav</v>
+        <v>words/laptop_TR.wav</v>
       </c>
     </row>
     <row r="344" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A344" t="s">
-        <v>81</v>
+        <v>105</v>
       </c>
       <c r="B344" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="C344" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="D344" t="str">
         <f t="shared" si="11"/>
-        <v>words/racquetball_TR.wav</v>
+        <v>words/yearbook_TR.wav</v>
       </c>
     </row>
     <row r="345" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A345" t="s">
-        <v>82</v>
+        <v>106</v>
       </c>
       <c r="B345" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="C345" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="D345" t="str">
         <f t="shared" si="11"/>
-        <v>words/skillet_TR.wav</v>
+        <v>words/toothbrush_TR.wav</v>
       </c>
     </row>
     <row r="346" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A346" t="s">
-        <v>83</v>
+        <v>107</v>
       </c>
       <c r="B346" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="C346" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="D346" t="str">
         <f t="shared" si="11"/>
-        <v>words/podium_TR.wav</v>
+        <v>words/playground_TR.wav</v>
       </c>
     </row>
     <row r="347" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A347" t="s">
-        <v>84</v>
+        <v>108</v>
       </c>
       <c r="B347" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="C347" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="D347" t="str">
         <f t="shared" si="11"/>
-        <v>words/duffel_TR.wav</v>
+        <v>words/freezer_TR.wav</v>
       </c>
     </row>
     <row r="348" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A348" t="s">
-        <v>85</v>
+        <v>109</v>
       </c>
       <c r="B348" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="C348" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="D348" t="str">
         <f t="shared" si="11"/>
-        <v>words/eggnog_TR.wav</v>
+        <v>words/freeway_TR.wav</v>
       </c>
     </row>
     <row r="349" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A349" t="s">
-        <v>86</v>
+        <v>110</v>
       </c>
       <c r="B349" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="C349" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="D349" t="str">
         <f t="shared" si="11"/>
-        <v>words/folder_TR.wav</v>
+        <v>words/makeup_TR.wav</v>
       </c>
     </row>
     <row r="350" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A350" t="s">
-        <v>87</v>
+        <v>111</v>
       </c>
       <c r="B350" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="C350" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="D350" t="str">
         <f t="shared" si="11"/>
-        <v>words/armour_TR.wav</v>
+        <v>words/arrow_TR.wav</v>
       </c>
     </row>
     <row r="351" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A351" t="s">
-        <v>88</v>
+        <v>112</v>
       </c>
       <c r="B351" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="C351" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="D351" t="str">
         <f t="shared" si="11"/>
-        <v>words/syringe_TR.wav</v>
+        <v>words/dynamite_TR.wav</v>
       </c>
     </row>
     <row r="352" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A352" t="s">
-        <v>89</v>
+        <v>113</v>
       </c>
       <c r="B352" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="C352" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="D352" t="str">
         <f t="shared" si="11"/>
-        <v>words/manicure_TR.wav</v>
+        <v>words/photograph_TR.wav</v>
       </c>
     </row>
     <row r="353" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A353" t="s">
-        <v>90</v>
+        <v>114</v>
       </c>
       <c r="B353" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="C353" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="D353" t="str">
         <f t="shared" si="11"/>
-        <v>words/washer_TR.wav</v>
+        <v>words/missile_TR.wav</v>
       </c>
     </row>
     <row r="354" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A354" t="s">
-        <v>91</v>
+        <v>115</v>
       </c>
       <c r="B354" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="C354" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="D354" t="str">
         <f t="shared" si="11"/>
-        <v>words/espresso_TR.wav</v>
+        <v>words/basket_TR.wav</v>
       </c>
     </row>
     <row r="355" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A355" t="s">
-        <v>92</v>
+        <v>116</v>
       </c>
       <c r="B355" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="C355" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="D355" t="str">
         <f t="shared" si="11"/>
-        <v>words/email_TR.wav</v>
+        <v>words/museum_TR.wav</v>
       </c>
     </row>
     <row r="356" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A356" t="s">
-        <v>93</v>
+        <v>117</v>
       </c>
       <c r="B356" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="C356" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="D356" t="str">
         <f t="shared" si="11"/>
-        <v>words/barbershop_TR.wav</v>
+        <v>words/palace_TR.wav</v>
       </c>
     </row>
     <row r="357" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A357" t="s">
-        <v>94</v>
+        <v>118</v>
       </c>
       <c r="B357" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="C357" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="D357" t="str">
         <f t="shared" si="11"/>
-        <v>words/uranium_TR.wav</v>
+        <v>words/diamond_TR.wav</v>
       </c>
     </row>
     <row r="358" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A358" t="s">
-        <v>95</v>
+        <v>119</v>
       </c>
       <c r="B358" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="C358" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="D358" t="str">
         <f t="shared" si="11"/>
-        <v>words/softball_TR.wav</v>
+        <v>words/butter_TR.wav</v>
       </c>
     </row>
     <row r="359" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A359" t="s">
-        <v>96</v>
+        <v>120</v>
       </c>
       <c r="B359" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="C359" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="D359" t="str">
         <f t="shared" si="11"/>
-        <v>words/bleach_TR.wav</v>
+        <v>words/wallet_TR.wav</v>
       </c>
     </row>
     <row r="360" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A360" t="s">
-        <v>97</v>
+        <v>121</v>
       </c>
       <c r="B360" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="C360" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="D360" t="str">
-        <f t="shared" si="11"/>
-        <v>words/vocabulary_TR.wav</v>
+        <f t="shared" ref="D360:D361" si="12">_xlfn.CONCAT("words/",A360,"_TR.wav")</f>
+        <v>words/garage_TR.wav</v>
       </c>
     </row>
     <row r="361" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A361" t="s">
-        <v>98</v>
+        <v>122</v>
       </c>
       <c r="B361" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="C361" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="D361" t="str">
-        <f t="shared" si="11"/>
-        <v>words/gadget_TR.wav</v>
-      </c>
-    </row>
-    <row r="362" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A362" t="s">
-        <v>99</v>
-      </c>
-      <c r="B362" t="s">
-        <v>136</v>
-      </c>
-      <c r="C362" t="s">
-        <v>138</v>
-      </c>
-      <c r="D362" t="str">
-        <f t="shared" si="11"/>
-        <v>words/grapefruit_TR.wav</v>
-      </c>
-    </row>
-    <row r="363" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A363" t="s">
-        <v>100</v>
-      </c>
-      <c r="B363" t="s">
-        <v>136</v>
-      </c>
-      <c r="C363" t="s">
-        <v>138</v>
-      </c>
-      <c r="D363" t="str">
-        <f t="shared" si="11"/>
-        <v>words/cupboard_TR.wav</v>
-      </c>
-    </row>
-    <row r="364" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A364" t="s">
-        <v>101</v>
-      </c>
-      <c r="B364" t="s">
-        <v>136</v>
-      </c>
-      <c r="C364" t="s">
-        <v>138</v>
-      </c>
-      <c r="D364" t="str">
-        <f t="shared" si="11"/>
-        <v>words/plaster_TR.wav</v>
-      </c>
-    </row>
-    <row r="365" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A365" t="s">
-        <v>102</v>
-      </c>
-      <c r="B365" t="s">
-        <v>136</v>
-      </c>
-      <c r="C365" t="s">
-        <v>138</v>
-      </c>
-      <c r="D365" t="str">
-        <f t="shared" si="11"/>
-        <v>words/hydrogen_TR.wav</v>
-      </c>
-    </row>
-    <row r="366" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A366" t="s">
-        <v>103</v>
-      </c>
-      <c r="B366" t="s">
-        <v>136</v>
-      </c>
-      <c r="C366" t="s">
-        <v>138</v>
-      </c>
-      <c r="D366" t="str">
-        <f t="shared" si="11"/>
-        <v>words/aquarium_TR.wav</v>
-      </c>
-    </row>
-    <row r="367" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A367" t="s">
-        <v>104</v>
-      </c>
-      <c r="B367" t="s">
-        <v>136</v>
-      </c>
-      <c r="C367" t="s">
-        <v>138</v>
-      </c>
-      <c r="D367" t="str">
-        <f t="shared" si="11"/>
-        <v>words/boiler_TR.wav</v>
-      </c>
-    </row>
-    <row r="368" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A368" t="s">
-        <v>105</v>
-      </c>
-      <c r="B368" t="s">
-        <v>136</v>
-      </c>
-      <c r="C368" t="s">
-        <v>138</v>
-      </c>
-      <c r="D368" t="str">
-        <f t="shared" si="11"/>
-        <v>words/pager_TR.wav</v>
-      </c>
-    </row>
-    <row r="369" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A369" t="s">
-        <v>106</v>
-      </c>
-      <c r="B369" t="s">
-        <v>136</v>
-      </c>
-      <c r="C369" t="s">
-        <v>138</v>
-      </c>
-      <c r="D369" t="str">
-        <f t="shared" si="11"/>
-        <v>words/jewellery_TR.wav</v>
-      </c>
-    </row>
-    <row r="370" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A370" t="s">
-        <v>107</v>
-      </c>
-      <c r="B370" t="s">
-        <v>136</v>
-      </c>
-      <c r="C370" t="s">
-        <v>138</v>
-      </c>
-      <c r="D370" t="str">
-        <f t="shared" si="11"/>
-        <v>words/mainland_TR.wav</v>
-      </c>
-    </row>
-    <row r="371" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A371" t="s">
-        <v>108</v>
-      </c>
-      <c r="B371" t="s">
-        <v>136</v>
-      </c>
-      <c r="C371" t="s">
-        <v>138</v>
-      </c>
-      <c r="D371" t="str">
-        <f t="shared" si="11"/>
-        <v>words/cinnamon_TR.wav</v>
-      </c>
-    </row>
-    <row r="372" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A372" t="s">
-        <v>109</v>
-      </c>
-      <c r="B372" t="s">
-        <v>136</v>
-      </c>
-      <c r="C372" t="s">
-        <v>138</v>
-      </c>
-      <c r="D372" t="str">
-        <f t="shared" si="11"/>
-        <v>words/fiber_TR.wav</v>
-      </c>
-    </row>
-    <row r="373" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A373" t="s">
-        <v>110</v>
-      </c>
-      <c r="B373" t="s">
-        <v>136</v>
-      </c>
-      <c r="C373" t="s">
-        <v>138</v>
-      </c>
-      <c r="D373" t="str">
-        <f t="shared" si="11"/>
-        <v>words/bagel_TR.wav</v>
-      </c>
-    </row>
-    <row r="374" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A374" t="s">
-        <v>111</v>
-      </c>
-      <c r="B374" t="s">
-        <v>136</v>
-      </c>
-      <c r="C374" t="s">
-        <v>138</v>
-      </c>
-      <c r="D374" t="str">
-        <f t="shared" si="11"/>
-        <v>words/casket_TR.wav</v>
-      </c>
-    </row>
-    <row r="375" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A375" t="s">
-        <v>112</v>
-      </c>
-      <c r="B375" t="s">
-        <v>136</v>
-      </c>
-      <c r="C375" t="s">
-        <v>138</v>
-      </c>
-      <c r="D375" t="str">
-        <f t="shared" si="11"/>
-        <v>words/telegraph_TR.wav</v>
-      </c>
-    </row>
-    <row r="376" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A376" t="s">
-        <v>113</v>
-      </c>
-      <c r="B376" t="s">
-        <v>136</v>
-      </c>
-      <c r="C376" t="s">
-        <v>138</v>
-      </c>
-      <c r="D376" t="str">
-        <f t="shared" si="11"/>
-        <v>words/laptop_TR.wav</v>
-      </c>
-    </row>
-    <row r="377" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A377" t="s">
-        <v>114</v>
-      </c>
-      <c r="B377" t="s">
-        <v>136</v>
-      </c>
-      <c r="C377" t="s">
-        <v>138</v>
-      </c>
-      <c r="D377" t="str">
-        <f t="shared" si="11"/>
-        <v>words/yearbook_TR.wav</v>
-      </c>
-    </row>
-    <row r="378" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A378" t="s">
-        <v>115</v>
-      </c>
-      <c r="B378" t="s">
-        <v>136</v>
-      </c>
-      <c r="C378" t="s">
-        <v>138</v>
-      </c>
-      <c r="D378" t="str">
-        <f t="shared" si="11"/>
-        <v>words/toothbrush_TR.wav</v>
-      </c>
-    </row>
-    <row r="379" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A379" t="s">
-        <v>116</v>
-      </c>
-      <c r="B379" t="s">
-        <v>136</v>
-      </c>
-      <c r="C379" t="s">
-        <v>138</v>
-      </c>
-      <c r="D379" t="str">
-        <f t="shared" si="11"/>
-        <v>words/cocoa_TR.wav</v>
-      </c>
-    </row>
-    <row r="380" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A380" t="s">
-        <v>117</v>
-      </c>
-      <c r="B380" t="s">
-        <v>136</v>
-      </c>
-      <c r="C380" t="s">
-        <v>138</v>
-      </c>
-      <c r="D380" t="str">
-        <f t="shared" si="11"/>
-        <v>words/playground_TR.wav</v>
-      </c>
-    </row>
-    <row r="381" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A381" t="s">
-        <v>118</v>
-      </c>
-      <c r="B381" t="s">
-        <v>136</v>
-      </c>
-      <c r="C381" t="s">
-        <v>138</v>
-      </c>
-      <c r="D381" t="str">
-        <f t="shared" si="11"/>
-        <v>words/freezer_TR.wav</v>
-      </c>
-    </row>
-    <row r="382" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A382" t="s">
-        <v>119</v>
-      </c>
-      <c r="B382" t="s">
-        <v>136</v>
-      </c>
-      <c r="C382" t="s">
-        <v>138</v>
-      </c>
-      <c r="D382" t="str">
-        <f t="shared" si="11"/>
-        <v>words/freeway_TR.wav</v>
-      </c>
-    </row>
-    <row r="383" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A383" t="s">
-        <v>120</v>
-      </c>
-      <c r="B383" t="s">
-        <v>136</v>
-      </c>
-      <c r="C383" t="s">
-        <v>138</v>
-      </c>
-      <c r="D383" t="str">
-        <f t="shared" si="11"/>
-        <v>words/makeup_TR.wav</v>
-      </c>
-    </row>
-    <row r="384" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A384" t="s">
-        <v>121</v>
-      </c>
-      <c r="B384" t="s">
-        <v>136</v>
-      </c>
-      <c r="C384" t="s">
-        <v>138</v>
-      </c>
-      <c r="D384" t="str">
-        <f t="shared" si="11"/>
-        <v>words/poster_TR.wav</v>
-      </c>
-    </row>
-    <row r="385" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A385" t="s">
-        <v>122</v>
-      </c>
-      <c r="B385" t="s">
-        <v>136</v>
-      </c>
-      <c r="C385" t="s">
-        <v>138</v>
-      </c>
-      <c r="D385" t="str">
-        <f t="shared" si="11"/>
-        <v>words/arrow_TR.wav</v>
-      </c>
-    </row>
-    <row r="386" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A386" t="s">
-        <v>123</v>
-      </c>
-      <c r="B386" t="s">
-        <v>136</v>
-      </c>
-      <c r="C386" t="s">
-        <v>138</v>
-      </c>
-      <c r="D386" t="str">
-        <f t="shared" si="11"/>
-        <v>words/dynamite_TR.wav</v>
-      </c>
-    </row>
-    <row r="387" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A387" t="s">
-        <v>124</v>
-      </c>
-      <c r="B387" t="s">
-        <v>136</v>
-      </c>
-      <c r="C387" t="s">
-        <v>138</v>
-      </c>
-      <c r="D387" t="str">
-        <f t="shared" si="11"/>
-        <v>words/photograph_TR.wav</v>
-      </c>
-    </row>
-    <row r="388" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A388" t="s">
-        <v>125</v>
-      </c>
-      <c r="B388" t="s">
-        <v>136</v>
-      </c>
-      <c r="C388" t="s">
-        <v>138</v>
-      </c>
-      <c r="D388" t="str">
-        <f t="shared" si="11"/>
-        <v>words/missile_TR.wav</v>
-      </c>
-    </row>
-    <row r="389" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A389" t="s">
-        <v>126</v>
-      </c>
-      <c r="B389" t="s">
-        <v>136</v>
-      </c>
-      <c r="C389" t="s">
-        <v>138</v>
-      </c>
-      <c r="D389" t="str">
-        <f t="shared" si="11"/>
-        <v>words/basket_TR.wav</v>
-      </c>
-    </row>
-    <row r="390" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A390" t="s">
-        <v>127</v>
-      </c>
-      <c r="B390" t="s">
-        <v>136</v>
-      </c>
-      <c r="C390" t="s">
-        <v>138</v>
-      </c>
-      <c r="D390" t="str">
-        <f t="shared" si="11"/>
-        <v>words/museum_TR.wav</v>
-      </c>
-    </row>
-    <row r="391" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A391" t="s">
-        <v>128</v>
-      </c>
-      <c r="B391" t="s">
-        <v>136</v>
-      </c>
-      <c r="C391" t="s">
-        <v>138</v>
-      </c>
-      <c r="D391" t="str">
-        <f t="shared" si="11"/>
-        <v>words/palace_TR.wav</v>
-      </c>
-    </row>
-    <row r="392" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A392" t="s">
-        <v>129</v>
-      </c>
-      <c r="B392" t="s">
-        <v>136</v>
-      </c>
-      <c r="C392" t="s">
-        <v>138</v>
-      </c>
-      <c r="D392" t="str">
-        <f t="shared" si="11"/>
-        <v>words/diamond_TR.wav</v>
-      </c>
-    </row>
-    <row r="393" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A393" t="s">
-        <v>130</v>
-      </c>
-      <c r="B393" t="s">
-        <v>136</v>
-      </c>
-      <c r="C393" t="s">
-        <v>138</v>
-      </c>
-      <c r="D393" t="str">
-        <f t="shared" si="11"/>
-        <v>words/butter_TR.wav</v>
-      </c>
-    </row>
-    <row r="394" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A394" t="s">
-        <v>131</v>
-      </c>
-      <c r="B394" t="s">
-        <v>136</v>
-      </c>
-      <c r="C394" t="s">
-        <v>138</v>
-      </c>
-      <c r="D394" t="str">
-        <f t="shared" si="11"/>
-        <v>words/vehicle_TR.wav</v>
-      </c>
-    </row>
-    <row r="395" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A395" t="s">
-        <v>132</v>
-      </c>
-      <c r="B395" t="s">
-        <v>136</v>
-      </c>
-      <c r="C395" t="s">
-        <v>138</v>
-      </c>
-      <c r="D395" t="str">
-        <f t="shared" si="11"/>
-        <v>words/wallet_TR.wav</v>
-      </c>
-    </row>
-    <row r="396" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A396" t="s">
-        <v>133</v>
-      </c>
-      <c r="B396" t="s">
-        <v>136</v>
-      </c>
-      <c r="C396" t="s">
-        <v>138</v>
-      </c>
-      <c r="D396" t="str">
-        <f t="shared" ref="D396:D397" si="12">_xlfn.CONCAT("words/",A396,"_TR.wav")</f>
-        <v>words/garage_TR.wav</v>
-      </c>
-    </row>
-    <row r="397" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A397" t="s">
-        <v>134</v>
-      </c>
-      <c r="B397" t="s">
-        <v>136</v>
-      </c>
-      <c r="C397" t="s">
-        <v>138</v>
-      </c>
-      <c r="D397" t="str">
         <f t="shared" si="12"/>
         <v>words/pizza_TR.wav</v>
       </c>

--- a/words.xlsx
+++ b/words.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ajnafannikertesz/Desktop/Accents /"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFF3E3A1-F299-DF4A-8544-C782C87FA46A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{373CCFE5-7A19-1E48-8B68-EC2275765BFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28420" windowHeight="16100" xr2:uid="{5A07E4D9-303A-2A46-9902-F74429138E6A}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1085" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1446" uniqueCount="133">
   <si>
     <t>target</t>
   </si>
@@ -152,9 +152,6 @@
     <t>cuckoo</t>
   </si>
   <si>
-    <t>fiancee</t>
-  </si>
-  <si>
     <t>bacteria</t>
   </si>
   <si>
@@ -266,9 +263,6 @@
     <t>podium</t>
   </si>
   <si>
-    <t>duffel</t>
-  </si>
-  <si>
     <t>eggnog</t>
   </si>
   <si>
@@ -413,16 +407,34 @@
     <t>non-living</t>
   </si>
   <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>l</t>
-  </si>
-  <si>
     <t>words/shellfish_NZ.wav</t>
   </si>
   <si>
     <t>wordfile</t>
+  </si>
+  <si>
+    <t>fiance</t>
+  </si>
+  <si>
+    <t>duffle</t>
+  </si>
+  <si>
+    <t>left</t>
+  </si>
+  <si>
+    <t>right</t>
+  </si>
+  <si>
+    <t>accent</t>
+  </si>
+  <si>
+    <t>NZ</t>
+  </si>
+  <si>
+    <t>US</t>
+  </si>
+  <si>
+    <t>TR</t>
   </si>
 </sst>
 </file>
@@ -774,10 +786,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55B0AD16-EF2B-2944-9D6D-95B64702B7F1}">
-  <dimension ref="A1:D361"/>
+  <dimension ref="A1:E361"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A222" workbookViewId="0">
-      <selection activeCell="H233" sqref="H233"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H355" sqref="H355"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -785,7 +797,7 @@
     <col min="4" max="4" width="25.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -796,5406 +808,6489 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+        <v>124</v>
+      </c>
+      <c r="E1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>3</v>
       </c>
       <c r="B2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C2" t="s">
+        <v>127</v>
+      </c>
+      <c r="D2" t="s">
         <v>123</v>
       </c>
-      <c r="C2" t="s">
-        <v>125</v>
-      </c>
-      <c r="D2" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C3" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D3" t="str">
         <f>_xlfn.CONCAT("words/",A3,"_NZ.wav")</f>
         <v>words/bloodhound_NZ.wav</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E3" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C4" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D4" t="str">
         <f t="shared" ref="D4:D62" si="0">_xlfn.CONCAT("words/",A4,"_NZ.wav")</f>
         <v>words/antelope_NZ.wav</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E4" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C5" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D5" t="str">
         <f t="shared" si="0"/>
         <v>words/woodpecker_NZ.wav</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E5" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C6" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D6" t="str">
         <f t="shared" si="0"/>
         <v>words/swordfish_NZ.wav</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E6" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D7" t="str">
         <f t="shared" si="0"/>
         <v>words/walrus_NZ.wav</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E7" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C8" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D8" t="str">
         <f t="shared" si="0"/>
         <v>words/tortoise_NZ.wav</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E8" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C9" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D9" t="str">
         <f t="shared" si="0"/>
         <v>words/caterpillar_NZ.wav</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E9" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C10" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D10" t="str">
         <f t="shared" si="0"/>
         <v>words/piranha_NZ.wav</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E10" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C11" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D11" t="str">
         <f t="shared" si="0"/>
         <v>words/chimpanzee_NZ.wav</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E11" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C12" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D12" t="str">
         <f t="shared" si="0"/>
         <v>words/gazelle_NZ.wav</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E12" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C13" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D13" t="str">
         <f t="shared" si="0"/>
         <v>words/seagull_NZ.wav</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E13" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C14" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D14" t="str">
         <f t="shared" si="0"/>
         <v>words/catfish_NZ.wav</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E14" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C15" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D15" t="str">
         <f t="shared" si="0"/>
         <v>words/critter_NZ.wav</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E15" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C16" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D16" t="str">
         <f t="shared" si="0"/>
         <v>words/giraffe_NZ.wav</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E16" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C17" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D17" t="str">
         <f t="shared" si="0"/>
         <v>words/ferret_NZ.wav</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E17" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C18" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D18" t="str">
         <f t="shared" si="0"/>
         <v>words/rattlesnake_NZ.wav</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E18" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C19" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D19" t="str">
         <f t="shared" si="0"/>
         <v>words/octopus_NZ.wav</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E19" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>21</v>
       </c>
       <c r="B20" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C20" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D20" t="str">
         <f t="shared" si="0"/>
         <v>words/livestock_NZ.wav</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E20" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>22</v>
       </c>
       <c r="B21" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C21" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D21" t="str">
         <f t="shared" si="0"/>
         <v>words/beetle_NZ.wav</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E21" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C22" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D22" t="str">
         <f t="shared" si="0"/>
         <v>words/possum_NZ.wav</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E22" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>24</v>
       </c>
       <c r="B23" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C23" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D23" t="str">
         <f t="shared" si="0"/>
         <v>words/rhino_NZ.wav</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E23" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>25</v>
       </c>
       <c r="B24" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C24" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D24" t="str">
         <f t="shared" si="0"/>
         <v>words/panda_NZ.wav</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E24" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>26</v>
       </c>
       <c r="B25" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C25" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D25" t="str">
         <f t="shared" si="0"/>
         <v>words/hamster_NZ.wav</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E25" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>27</v>
       </c>
       <c r="B26" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C26" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D26" t="str">
         <f t="shared" si="0"/>
         <v>words/crocodile_NZ.wav</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E26" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>28</v>
       </c>
       <c r="B27" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C27" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D27" t="str">
         <f>_xlfn.CONCAT("words/",A27,"_NZ.wav")</f>
         <v>words/kangaroo_NZ.wav</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E27" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>29</v>
       </c>
       <c r="B28" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C28" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D28" t="str">
         <f t="shared" si="0"/>
         <v>words/corral_NZ.wav</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E28" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>30</v>
       </c>
       <c r="B29" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C29" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D29" t="str">
         <f t="shared" si="0"/>
         <v>words/parasite_NZ.wav</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E29" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>31</v>
       </c>
       <c r="B30" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C30" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D30" t="str">
         <f t="shared" si="0"/>
         <v>words/zebra_NZ.wav</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E30" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>32</v>
       </c>
       <c r="B31" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C31" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D31" t="str">
         <f t="shared" si="0"/>
         <v>words/predator_NZ.wav</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E31" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>33</v>
       </c>
       <c r="B32" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C32" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D32" t="str">
         <f t="shared" si="0"/>
         <v>words/scorpion_NZ.wav</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E32" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>34</v>
       </c>
       <c r="B33" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C33" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D33" t="str">
         <f t="shared" si="0"/>
         <v>words/dolphin_NZ.wav</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E33" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>35</v>
       </c>
       <c r="B34" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C34" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D34" t="str">
         <f t="shared" si="0"/>
         <v>words/cricket_NZ.wav</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E34" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>36</v>
       </c>
       <c r="B35" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C35" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D35" t="str">
         <f t="shared" si="0"/>
         <v>words/penguin_NZ.wav</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E35" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>37</v>
       </c>
       <c r="B36" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C36" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D36" t="str">
         <f t="shared" si="0"/>
         <v>words/cuckoo_NZ.wav</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E36" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>38</v>
+        <v>125</v>
       </c>
       <c r="B37" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C37" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D37" t="str">
         <f t="shared" si="0"/>
-        <v>words/fiancee_NZ.wav</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+        <v>words/fiance_NZ.wav</v>
+      </c>
+      <c r="E37" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B38" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C38" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D38" t="str">
         <f t="shared" si="0"/>
         <v>words/bacteria_NZ.wav</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E38" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B39" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C39" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D39" t="str">
         <f t="shared" si="0"/>
         <v>words/goldfish_NZ.wav</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E39" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B40" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C40" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D40" t="str">
         <f t="shared" si="0"/>
         <v>words/oyster_NZ.wav</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E40" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B41" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C41" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D41" t="str">
         <f t="shared" si="0"/>
         <v>words/insect_NZ.wav</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E41" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B42" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C42" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D42" t="str">
         <f t="shared" si="0"/>
         <v>words/parrot_NZ.wav</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E42" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B43" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C43" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D43" t="str">
         <f t="shared" si="0"/>
         <v>words/reindeer_NZ.wav</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E43" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B44" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C44" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D44" t="str">
         <f t="shared" si="0"/>
         <v>words/kitten_NZ.wav</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E44" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B45" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C45" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D45" t="str">
         <f>_xlfn.CONCAT("words/",A45,"_NZ.wav")</f>
         <v>words/camel_NZ.wav</v>
       </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E45" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B46" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C46" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D46" t="str">
         <f t="shared" si="0"/>
         <v>words/donkey_NZ.wav</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E46" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B47" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C47" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D47" t="str">
         <f t="shared" si="0"/>
         <v>words/butterfly_NZ.wav</v>
       </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E47" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B48" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C48" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D48" t="str">
         <f t="shared" si="0"/>
         <v>words/lion_NZ.wav</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E48" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B49" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C49" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D49" t="str">
         <f t="shared" si="0"/>
         <v>words/salmon_NZ.wav</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E49" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B50" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C50" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D50" t="str">
         <f t="shared" si="0"/>
         <v>words/tuna_NZ.wav</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E50" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B51" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C51" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D51" t="str">
         <f t="shared" si="0"/>
         <v>words/spider_NZ.wav</v>
       </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E51" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B52" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C52" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D52" t="str">
         <f t="shared" si="0"/>
         <v>words/elephant_NZ.wav</v>
       </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E52" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B53" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C53" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D53" t="str">
         <f t="shared" si="0"/>
         <v>words/goose_NZ.wav</v>
       </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E53" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B54" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C54" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D54" t="str">
         <f t="shared" si="0"/>
         <v>words/tiger_NZ.wav</v>
       </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E54" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B55" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C55" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D55" t="str">
         <f t="shared" si="0"/>
         <v>words/mouse_NZ.wav</v>
       </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E55" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B56" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C56" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D56" t="str">
         <f t="shared" si="0"/>
         <v>words/rabbit_NZ.wav</v>
       </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E56" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B57" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C57" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D57" t="str">
         <f t="shared" si="0"/>
         <v>words/snake_NZ.wav</v>
       </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E57" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B58" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C58" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D58" t="str">
         <f t="shared" si="0"/>
         <v>words/turkey_NZ.wav</v>
       </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E58" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B59" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C59" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D59" t="str">
         <f t="shared" si="0"/>
         <v>words/flower_NZ.wav</v>
       </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E59" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B60" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C60" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D60" t="str">
         <f t="shared" si="0"/>
         <v>words/grandmother_NZ.wav</v>
       </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E60" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B61" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C61" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D61" t="str">
         <f>_xlfn.CONCAT("words/",A61,"_NZ.wav")</f>
         <v>words/monkey_NZ.wav</v>
       </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E61" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B62" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C62" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D62" t="str">
         <f t="shared" si="0"/>
         <v>words/musket_NZ.wav</v>
       </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E62" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B63" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C63" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D63" t="str">
         <f t="shared" ref="D63:D77" si="1">_xlfn.CONCAT("words/",A63,"_NZ.wav")</f>
         <v>words/sunscreen_NZ.wav</v>
       </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E63" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B64" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C64" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D64" t="str">
         <f t="shared" si="1"/>
         <v>words/sauerkraut_NZ.wav</v>
       </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E64" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B65" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C65" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D65" t="str">
         <f t="shared" si="1"/>
         <v>words/matchbook_NZ.wav</v>
       </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E65" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B66" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C66" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D66" t="str">
         <f t="shared" si="1"/>
         <v>words/eyeliner_NZ.wav</v>
       </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E66" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B67" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C67" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D67" t="str">
         <f t="shared" si="1"/>
         <v>words/aftershave_NZ.wav</v>
       </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E67" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B68" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C68" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D68" t="str">
         <f t="shared" si="1"/>
         <v>words/corkscrew_NZ.wav</v>
       </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E68" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B69" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C69" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D69" t="str">
         <f t="shared" si="1"/>
         <v>words/airstrip_NZ.wav</v>
       </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E69" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B70" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C70" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D70" t="str">
         <f t="shared" si="1"/>
         <v>words/fragrance_NZ.wav</v>
       </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E70" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B71" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C71" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D71" t="str">
         <f t="shared" si="1"/>
         <v>words/scrapbook_NZ.wav</v>
       </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E71" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B72" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C72" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D72" t="str">
         <f t="shared" si="1"/>
         <v>words/buttermilk_NZ.wav</v>
       </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E72" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B73" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C73" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D73" t="str">
         <f t="shared" si="1"/>
         <v>words/racquetball_NZ.wav</v>
       </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E73" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B74" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C74" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D74" t="str">
         <f t="shared" si="1"/>
         <v>words/podium_NZ.wav</v>
       </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E74" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>76</v>
+        <v>126</v>
       </c>
       <c r="B75" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C75" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D75" t="str">
         <f t="shared" si="1"/>
-        <v>words/duffel_NZ.wav</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+        <v>words/duffle_NZ.wav</v>
+      </c>
+      <c r="E75" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C76" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D76" t="str">
         <f t="shared" si="1"/>
         <v>words/eggnog_NZ.wav</v>
       </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E76" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C77" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D77" t="str">
         <f t="shared" si="1"/>
         <v>words/folder_NZ.wav</v>
       </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E77" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C78" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D78" t="str">
         <f>_xlfn.CONCAT("words/",A78,"_NZ.wav")</f>
         <v>words/armour_NZ.wav</v>
       </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E78" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C79" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D79" t="str">
         <f t="shared" ref="D79:D93" si="2">_xlfn.CONCAT("words/",A79,"_NZ.wav")</f>
         <v>words/syringe_NZ.wav</v>
       </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E79" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C80" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D80" t="str">
         <f t="shared" si="2"/>
         <v>words/manicure_NZ.wav</v>
       </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E80" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C81" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D81" t="str">
         <f t="shared" si="2"/>
         <v>words/washer_NZ.wav</v>
       </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E81" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C82" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D82" t="str">
         <f t="shared" si="2"/>
         <v>words/espresso_NZ.wav</v>
       </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E82" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C83" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D83" t="str">
         <f t="shared" si="2"/>
         <v>words/email_NZ.wav</v>
       </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E83" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C84" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D84" t="str">
         <f t="shared" si="2"/>
         <v>words/barbershop_NZ.wav</v>
       </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E84" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C85" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D85" t="str">
         <f t="shared" si="2"/>
         <v>words/uranium_NZ.wav</v>
       </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E85" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C86" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D86" t="str">
         <f t="shared" si="2"/>
         <v>words/softball_NZ.wav</v>
       </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E86" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C87" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D87" t="str">
         <f t="shared" si="2"/>
         <v>words/bleach_NZ.wav</v>
       </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E87" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C88" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D88" t="str">
         <f t="shared" si="2"/>
         <v>words/vocabulary_NZ.wav</v>
       </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E88" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C89" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D89" t="str">
         <f t="shared" si="2"/>
         <v>words/gadget_NZ.wav</v>
       </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E89" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C90" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D90" t="str">
         <f t="shared" si="2"/>
         <v>words/grapefruit_NZ.wav</v>
       </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E90" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C91" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D91" t="str">
         <f t="shared" si="2"/>
         <v>words/plaster_NZ.wav</v>
       </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E91" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C92" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D92" t="str">
         <f t="shared" si="2"/>
         <v>words/hydrogen_NZ.wav</v>
       </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E92" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C93" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D93" t="str">
         <f t="shared" si="2"/>
         <v>words/aquarium_NZ.wav</v>
       </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E93" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C94" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D94" t="str">
         <f>_xlfn.CONCAT("words/",A94,"_NZ.wav")</f>
         <v>words/boiler_NZ.wav</v>
       </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E94" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C95" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D95" t="str">
         <f t="shared" ref="D95:D115" si="3">_xlfn.CONCAT("words/",A95,"_NZ.wav")</f>
         <v>words/pager_NZ.wav</v>
       </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E95" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B96" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C96" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D96" t="str">
         <f t="shared" si="3"/>
         <v>words/jewellery_NZ.wav</v>
       </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E96" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C97" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D97" t="str">
         <f t="shared" si="3"/>
         <v>words/mainland_NZ.wav</v>
       </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E97" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C98" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D98" t="str">
         <f t="shared" si="3"/>
         <v>words/cinnamon_NZ.wav</v>
       </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E98" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B99" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C99" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D99" t="str">
         <f t="shared" si="3"/>
         <v>words/fiber_NZ.wav</v>
       </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E99" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B100" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C100" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D100" t="str">
         <f t="shared" si="3"/>
         <v>words/bagel_NZ.wav</v>
       </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E100" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B101" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C101" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D101" t="str">
         <f t="shared" si="3"/>
         <v>words/casket_NZ.wav</v>
       </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E101" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B102" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C102" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D102" t="str">
         <f t="shared" si="3"/>
         <v>words/telegraph_NZ.wav</v>
       </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E102" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B103" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C103" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D103" t="str">
         <f t="shared" si="3"/>
         <v>words/laptop_NZ.wav</v>
       </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E103" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B104" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C104" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D104" t="str">
         <f t="shared" si="3"/>
         <v>words/yearbook_NZ.wav</v>
       </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E104" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B105" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C105" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D105" t="str">
         <f t="shared" si="3"/>
         <v>words/toothbrush_NZ.wav</v>
       </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E105" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B106" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C106" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D106" t="str">
         <f t="shared" si="3"/>
         <v>words/playground_NZ.wav</v>
       </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E106" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B107" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C107" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D107" t="str">
         <f t="shared" si="3"/>
         <v>words/freezer_NZ.wav</v>
       </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E107" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B108" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C108" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D108" t="str">
         <f t="shared" si="3"/>
         <v>words/freeway_NZ.wav</v>
       </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E108" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B109" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C109" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D109" t="str">
         <f t="shared" si="3"/>
         <v>words/makeup_NZ.wav</v>
       </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E109" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B110" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C110" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D110" t="str">
         <f t="shared" si="3"/>
         <v>words/arrow_NZ.wav</v>
       </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E110" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B111" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C111" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D111" t="str">
         <f t="shared" si="3"/>
         <v>words/dynamite_NZ.wav</v>
       </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E111" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B112" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C112" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D112" t="str">
         <f t="shared" si="3"/>
         <v>words/photograph_NZ.wav</v>
       </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E112" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B113" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C113" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D113" t="str">
         <f t="shared" si="3"/>
         <v>words/missile_NZ.wav</v>
       </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E113" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B114" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C114" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D114" t="str">
         <f t="shared" si="3"/>
         <v>words/basket_NZ.wav</v>
       </c>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E114" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B115" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C115" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D115" t="str">
         <f t="shared" si="3"/>
         <v>words/museum_NZ.wav</v>
       </c>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E115" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B116" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C116" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D116" t="str">
         <f>_xlfn.CONCAT("words/",A116,"_NZ.wav")</f>
         <v>words/palace_NZ.wav</v>
       </c>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E116" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B117" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C117" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D117" t="str">
         <f t="shared" ref="D117:D121" si="4">_xlfn.CONCAT("words/",A117,"_NZ.wav")</f>
         <v>words/diamond_NZ.wav</v>
       </c>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E117" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B118" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C118" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D118" t="str">
         <f t="shared" si="4"/>
         <v>words/butter_NZ.wav</v>
       </c>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E118" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B119" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C119" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D119" t="str">
         <f t="shared" si="4"/>
         <v>words/wallet_NZ.wav</v>
       </c>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E119" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B120" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C120" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D120" t="str">
         <f t="shared" si="4"/>
         <v>words/garage_NZ.wav</v>
       </c>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E120" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B121" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C121" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D121" t="str">
         <f t="shared" si="4"/>
         <v>words/pizza_NZ.wav</v>
       </c>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E121" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>3</v>
       </c>
       <c r="B122" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C122" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D122" t="str">
         <f>_xlfn.CONCAT("words/",A122,"_US.wav")</f>
         <v>words/shellfish_US.wav</v>
       </c>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E122" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>4</v>
       </c>
       <c r="B123" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C123" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D123" t="str">
         <f t="shared" ref="D123:D180" si="5">_xlfn.CONCAT("words/",A123,"_US.wav")</f>
         <v>words/bloodhound_US.wav</v>
       </c>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E123" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>5</v>
       </c>
       <c r="B124" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C124" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D124" t="str">
         <f t="shared" si="5"/>
         <v>words/antelope_US.wav</v>
       </c>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E124" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>6</v>
       </c>
       <c r="B125" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C125" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D125" t="str">
         <f t="shared" si="5"/>
         <v>words/woodpecker_US.wav</v>
       </c>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E125" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>7</v>
       </c>
       <c r="B126" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C126" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D126" t="str">
         <f t="shared" si="5"/>
         <v>words/swordfish_US.wav</v>
       </c>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E126" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>8</v>
       </c>
       <c r="B127" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C127" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D127" t="str">
         <f t="shared" si="5"/>
         <v>words/walrus_US.wav</v>
       </c>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E127" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>9</v>
       </c>
       <c r="B128" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C128" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D128" t="str">
         <f t="shared" si="5"/>
         <v>words/tortoise_US.wav</v>
       </c>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E128" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>10</v>
       </c>
       <c r="B129" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C129" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D129" t="str">
         <f t="shared" si="5"/>
         <v>words/caterpillar_US.wav</v>
       </c>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E129" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>11</v>
       </c>
       <c r="B130" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C130" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D130" t="str">
         <f t="shared" si="5"/>
         <v>words/piranha_US.wav</v>
       </c>
-    </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E130" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>12</v>
       </c>
       <c r="B131" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C131" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D131" t="str">
         <f t="shared" si="5"/>
         <v>words/chimpanzee_US.wav</v>
       </c>
-    </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E131" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>13</v>
       </c>
       <c r="B132" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C132" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D132" t="str">
         <f t="shared" si="5"/>
         <v>words/gazelle_US.wav</v>
       </c>
-    </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E132" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>14</v>
       </c>
       <c r="B133" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C133" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D133" t="str">
         <f t="shared" si="5"/>
         <v>words/seagull_US.wav</v>
       </c>
-    </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E133" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>15</v>
       </c>
       <c r="B134" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C134" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D134" t="str">
         <f t="shared" si="5"/>
         <v>words/catfish_US.wav</v>
       </c>
-    </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E134" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>16</v>
       </c>
       <c r="B135" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C135" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D135" t="str">
         <f t="shared" si="5"/>
         <v>words/critter_US.wav</v>
       </c>
-    </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E135" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>17</v>
       </c>
       <c r="B136" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C136" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D136" t="str">
         <f t="shared" si="5"/>
         <v>words/giraffe_US.wav</v>
       </c>
-    </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E136" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>18</v>
       </c>
       <c r="B137" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C137" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D137" t="str">
         <f t="shared" si="5"/>
         <v>words/ferret_US.wav</v>
       </c>
-    </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E137" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>19</v>
       </c>
       <c r="B138" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C138" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D138" t="str">
         <f t="shared" si="5"/>
         <v>words/rattlesnake_US.wav</v>
       </c>
-    </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E138" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>20</v>
       </c>
       <c r="B139" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C139" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D139" t="str">
         <f t="shared" si="5"/>
         <v>words/octopus_US.wav</v>
       </c>
-    </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E139" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>21</v>
       </c>
       <c r="B140" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C140" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D140" t="str">
         <f t="shared" si="5"/>
         <v>words/livestock_US.wav</v>
       </c>
-    </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E140" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>22</v>
       </c>
       <c r="B141" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C141" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D141" t="str">
         <f t="shared" si="5"/>
         <v>words/beetle_US.wav</v>
       </c>
-    </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E141" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>23</v>
       </c>
       <c r="B142" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C142" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D142" t="str">
         <f t="shared" si="5"/>
         <v>words/possum_US.wav</v>
       </c>
-    </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E142" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>24</v>
       </c>
       <c r="B143" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C143" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D143" t="str">
         <f t="shared" si="5"/>
         <v>words/rhino_US.wav</v>
       </c>
-    </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E143" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>25</v>
       </c>
       <c r="B144" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C144" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D144" t="str">
         <f t="shared" si="5"/>
         <v>words/panda_US.wav</v>
       </c>
-    </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E144" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>26</v>
       </c>
       <c r="B145" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C145" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D145" t="str">
         <f t="shared" si="5"/>
         <v>words/hamster_US.wav</v>
       </c>
-    </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E145" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>27</v>
       </c>
       <c r="B146" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C146" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D146" t="str">
         <f t="shared" si="5"/>
         <v>words/crocodile_US.wav</v>
       </c>
-    </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E146" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>28</v>
       </c>
       <c r="B147" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C147" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D147" t="str">
         <f t="shared" si="5"/>
         <v>words/kangaroo_US.wav</v>
       </c>
-    </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E147" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>29</v>
       </c>
       <c r="B148" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C148" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D148" t="str">
         <f t="shared" si="5"/>
         <v>words/corral_US.wav</v>
       </c>
-    </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E148" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>30</v>
       </c>
       <c r="B149" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C149" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D149" t="str">
         <f t="shared" si="5"/>
         <v>words/parasite_US.wav</v>
       </c>
-    </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E149" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>31</v>
       </c>
       <c r="B150" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C150" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D150" t="str">
         <f t="shared" si="5"/>
         <v>words/zebra_US.wav</v>
       </c>
-    </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E150" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>32</v>
       </c>
       <c r="B151" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C151" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D151" t="str">
         <f t="shared" si="5"/>
         <v>words/predator_US.wav</v>
       </c>
-    </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E151" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>33</v>
       </c>
       <c r="B152" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C152" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D152" t="str">
         <f t="shared" si="5"/>
         <v>words/scorpion_US.wav</v>
       </c>
-    </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E152" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>34</v>
       </c>
       <c r="B153" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C153" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D153" t="str">
         <f t="shared" si="5"/>
         <v>words/dolphin_US.wav</v>
       </c>
-    </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E153" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>35</v>
       </c>
       <c r="B154" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C154" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D154" t="str">
         <f t="shared" si="5"/>
         <v>words/cricket_US.wav</v>
       </c>
-    </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E154" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>36</v>
       </c>
       <c r="B155" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C155" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D155" t="str">
         <f t="shared" si="5"/>
         <v>words/penguin_US.wav</v>
       </c>
-    </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E155" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>37</v>
       </c>
       <c r="B156" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C156" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D156" t="str">
         <f t="shared" si="5"/>
         <v>words/cuckoo_US.wav</v>
       </c>
-    </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E156" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>38</v>
+        <v>125</v>
       </c>
       <c r="B157" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C157" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D157" t="str">
         <f t="shared" si="5"/>
-        <v>words/fiancee_US.wav</v>
-      </c>
-    </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.2">
+        <v>words/fiance_US.wav</v>
+      </c>
+      <c r="E157" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B158" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C158" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D158" t="str">
         <f t="shared" si="5"/>
         <v>words/bacteria_US.wav</v>
       </c>
-    </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E158" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B159" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C159" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D159" t="str">
         <f t="shared" si="5"/>
         <v>words/goldfish_US.wav</v>
       </c>
-    </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E159" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B160" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C160" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D160" t="str">
         <f t="shared" si="5"/>
         <v>words/oyster_US.wav</v>
       </c>
-    </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E160" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B161" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C161" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D161" t="str">
         <f t="shared" si="5"/>
         <v>words/insect_US.wav</v>
       </c>
-    </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E161" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B162" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C162" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D162" t="str">
         <f t="shared" si="5"/>
         <v>words/parrot_US.wav</v>
       </c>
-    </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E162" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B163" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C163" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D163" t="str">
         <f t="shared" si="5"/>
         <v>words/reindeer_US.wav</v>
       </c>
-    </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E163" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B164" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C164" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D164" t="str">
         <f t="shared" si="5"/>
         <v>words/kitten_US.wav</v>
       </c>
-    </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E164" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B165" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C165" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D165" t="str">
         <f t="shared" si="5"/>
         <v>words/camel_US.wav</v>
       </c>
-    </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E165" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B166" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C166" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D166" t="str">
         <f t="shared" si="5"/>
         <v>words/donkey_US.wav</v>
       </c>
-    </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E166" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B167" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C167" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D167" t="str">
         <f t="shared" si="5"/>
         <v>words/butterfly_US.wav</v>
       </c>
-    </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E167" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B168" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C168" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D168" t="str">
         <f t="shared" si="5"/>
         <v>words/lion_US.wav</v>
       </c>
-    </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E168" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B169" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C169" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D169" t="str">
         <f t="shared" si="5"/>
         <v>words/salmon_US.wav</v>
       </c>
-    </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E169" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B170" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C170" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D170" t="str">
         <f t="shared" si="5"/>
         <v>words/tuna_US.wav</v>
       </c>
-    </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E170" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B171" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C171" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D171" t="str">
         <f t="shared" si="5"/>
         <v>words/spider_US.wav</v>
       </c>
-    </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E171" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B172" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C172" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D172" t="str">
         <f t="shared" si="5"/>
         <v>words/elephant_US.wav</v>
       </c>
-    </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E172" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B173" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C173" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D173" t="str">
         <f t="shared" si="5"/>
         <v>words/goose_US.wav</v>
       </c>
-    </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E173" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B174" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C174" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D174" t="str">
         <f t="shared" si="5"/>
         <v>words/tiger_US.wav</v>
       </c>
-    </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E174" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B175" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C175" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D175" t="str">
         <f t="shared" si="5"/>
         <v>words/mouse_US.wav</v>
       </c>
-    </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E175" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B176" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C176" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D176" t="str">
         <f t="shared" si="5"/>
         <v>words/rabbit_US.wav</v>
       </c>
-    </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E176" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B177" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C177" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D177" t="str">
         <f t="shared" si="5"/>
         <v>words/snake_US.wav</v>
       </c>
-    </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E177" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B178" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C178" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D178" t="str">
         <f t="shared" si="5"/>
         <v>words/turkey_US.wav</v>
       </c>
-    </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E178" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B179" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C179" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D179" t="str">
         <f t="shared" si="5"/>
         <v>words/flower_US.wav</v>
       </c>
-    </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E179" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B180" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C180" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D180" t="str">
         <f t="shared" si="5"/>
         <v>words/grandmother_US.wav</v>
       </c>
-    </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E180" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B181" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C181" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D181" t="str">
         <f t="shared" ref="D181:D186" si="6">_xlfn.CONCAT("words/",A181,"_US.wav")</f>
         <v>words/monkey_US.wav</v>
       </c>
-    </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E181" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B182" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C182" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D182" t="str">
         <f t="shared" si="6"/>
         <v>words/musket_US.wav</v>
       </c>
-    </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E182" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B183" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C183" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D183" t="str">
         <f t="shared" si="6"/>
         <v>words/sunscreen_US.wav</v>
       </c>
-    </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E183" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B184" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C184" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D184" t="str">
         <f t="shared" si="6"/>
         <v>words/sauerkraut_US.wav</v>
       </c>
-    </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E184" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B185" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C185" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D185" t="str">
         <f t="shared" si="6"/>
         <v>words/matchbook_US.wav</v>
       </c>
-    </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E185" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B186" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C186" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D186" t="str">
         <f t="shared" si="6"/>
         <v>words/eyeliner_US.wav</v>
       </c>
-    </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E186" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B187" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C187" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D187" t="str">
         <f>_xlfn.CONCAT("words/",A187,"_US.wav")</f>
         <v>words/aftershave_US.wav</v>
       </c>
-    </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E187" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B188" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C188" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D188" t="str">
         <f t="shared" ref="D188:D205" si="7">_xlfn.CONCAT("words/",A188,"_US.wav")</f>
         <v>words/corkscrew_US.wav</v>
       </c>
-    </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E188" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B189" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C189" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D189" t="str">
         <f t="shared" si="7"/>
         <v>words/airstrip_US.wav</v>
       </c>
-    </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E189" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B190" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C190" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D190" t="str">
         <f t="shared" si="7"/>
         <v>words/fragrance_US.wav</v>
       </c>
-    </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E190" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B191" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C191" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D191" t="str">
         <f t="shared" si="7"/>
         <v>words/scrapbook_US.wav</v>
       </c>
-    </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E191" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B192" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C192" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D192" t="str">
         <f t="shared" si="7"/>
         <v>words/buttermilk_US.wav</v>
       </c>
-    </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E192" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B193" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C193" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D193" t="str">
         <f t="shared" si="7"/>
         <v>words/racquetball_US.wav</v>
       </c>
-    </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E193" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B194" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C194" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D194" t="str">
         <f t="shared" si="7"/>
         <v>words/podium_US.wav</v>
       </c>
-    </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E194" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
-        <v>76</v>
+        <v>126</v>
       </c>
       <c r="B195" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C195" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D195" t="str">
         <f t="shared" si="7"/>
-        <v>words/duffel_US.wav</v>
-      </c>
-    </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.2">
+        <v>words/duffle_US.wav</v>
+      </c>
+      <c r="E195" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B196" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C196" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D196" t="str">
         <f t="shared" si="7"/>
         <v>words/eggnog_US.wav</v>
       </c>
-    </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E196" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B197" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C197" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D197" t="str">
         <f t="shared" si="7"/>
         <v>words/folder_US.wav</v>
       </c>
-    </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E197" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B198" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C198" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D198" t="str">
         <f t="shared" si="7"/>
         <v>words/armour_US.wav</v>
       </c>
-    </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E198" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B199" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C199" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D199" t="str">
         <f t="shared" si="7"/>
         <v>words/syringe_US.wav</v>
       </c>
-    </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E199" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B200" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C200" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D200" t="str">
         <f t="shared" si="7"/>
         <v>words/manicure_US.wav</v>
       </c>
-    </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E200" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B201" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C201" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D201" t="str">
         <f t="shared" si="7"/>
         <v>words/washer_US.wav</v>
       </c>
-    </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E201" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B202" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C202" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D202" t="str">
         <f t="shared" si="7"/>
         <v>words/espresso_US.wav</v>
       </c>
-    </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E202" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B203" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C203" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D203" t="str">
         <f t="shared" si="7"/>
         <v>words/email_US.wav</v>
       </c>
-    </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E203" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B204" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C204" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D204" t="str">
         <f t="shared" si="7"/>
         <v>words/barbershop_US.wav</v>
       </c>
-    </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E204" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B205" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C205" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D205" t="str">
         <f t="shared" si="7"/>
         <v>words/uranium_US.wav</v>
       </c>
-    </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E205" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B206" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C206" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D206" t="str">
         <f>_xlfn.CONCAT("words/",A206,"_US.wav")</f>
         <v>words/softball_US.wav</v>
       </c>
-    </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E206" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B207" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C207" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D207" t="str">
         <f t="shared" ref="D207:D226" si="8">_xlfn.CONCAT("words/",A207,"_US.wav")</f>
         <v>words/bleach_US.wav</v>
       </c>
-    </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E207" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B208" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C208" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D208" t="str">
         <f t="shared" si="8"/>
         <v>words/vocabulary_US.wav</v>
       </c>
-    </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E208" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B209" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C209" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D209" t="str">
         <f t="shared" si="8"/>
         <v>words/gadget_US.wav</v>
       </c>
-    </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E209" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B210" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C210" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D210" t="str">
         <f t="shared" si="8"/>
         <v>words/grapefruit_US.wav</v>
       </c>
-    </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E210" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B211" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C211" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D211" t="str">
         <f t="shared" si="8"/>
         <v>words/plaster_US.wav</v>
       </c>
-    </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E211" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B212" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C212" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D212" t="str">
         <f t="shared" si="8"/>
         <v>words/hydrogen_US.wav</v>
       </c>
-    </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E212" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B213" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C213" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D213" t="str">
         <f t="shared" si="8"/>
         <v>words/aquarium_US.wav</v>
       </c>
-    </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E213" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B214" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C214" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D214" t="str">
         <f t="shared" si="8"/>
         <v>words/boiler_US.wav</v>
       </c>
-    </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E214" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B215" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C215" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D215" t="str">
         <f t="shared" si="8"/>
         <v>words/pager_US.wav</v>
       </c>
-    </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E215" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B216" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C216" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D216" t="str">
         <f t="shared" si="8"/>
         <v>words/jewellery_US.wav</v>
       </c>
-    </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E216" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B217" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C217" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D217" t="str">
         <f t="shared" si="8"/>
         <v>words/mainland_US.wav</v>
       </c>
-    </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E217" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B218" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C218" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D218" t="str">
         <f t="shared" si="8"/>
         <v>words/cinnamon_US.wav</v>
       </c>
-    </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E218" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B219" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C219" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D219" t="str">
         <f t="shared" si="8"/>
         <v>words/fiber_US.wav</v>
       </c>
-    </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E219" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B220" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C220" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D220" t="str">
         <f t="shared" si="8"/>
         <v>words/bagel_US.wav</v>
       </c>
-    </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E220" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B221" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C221" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D221" t="str">
         <f t="shared" si="8"/>
         <v>words/casket_US.wav</v>
       </c>
-    </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E221" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B222" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C222" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D222" t="str">
         <f t="shared" si="8"/>
         <v>words/telegraph_US.wav</v>
       </c>
-    </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E222" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B223" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C223" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D223" t="str">
         <f t="shared" si="8"/>
         <v>words/laptop_US.wav</v>
       </c>
-    </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E223" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B224" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C224" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D224" t="str">
         <f t="shared" si="8"/>
         <v>words/yearbook_US.wav</v>
       </c>
-    </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E224" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B225" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C225" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D225" t="str">
         <f t="shared" si="8"/>
         <v>words/toothbrush_US.wav</v>
       </c>
-    </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E225" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B226" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C226" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D226" t="str">
         <f t="shared" si="8"/>
         <v>words/playground_US.wav</v>
       </c>
-    </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E226" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B227" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C227" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D227" t="str">
         <f>_xlfn.CONCAT("words/",A227,"_US.wav")</f>
         <v>words/freezer_US.wav</v>
       </c>
-    </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E227" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B228" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C228" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D228" t="str">
         <f t="shared" ref="D228:D241" si="9">_xlfn.CONCAT("words/",A228,"_US.wav")</f>
         <v>words/freeway_US.wav</v>
       </c>
-    </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E228" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B229" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C229" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D229" t="str">
         <f t="shared" si="9"/>
         <v>words/makeup_US.wav</v>
       </c>
-    </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E229" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B230" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C230" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D230" t="str">
         <f t="shared" si="9"/>
         <v>words/arrow_US.wav</v>
       </c>
-    </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E230" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B231" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C231" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D231" t="str">
         <f t="shared" si="9"/>
         <v>words/dynamite_US.wav</v>
       </c>
-    </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E231" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B232" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C232" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D232" t="str">
         <f t="shared" si="9"/>
         <v>words/photograph_US.wav</v>
       </c>
-    </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E232" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B233" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C233" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D233" t="str">
         <f t="shared" si="9"/>
         <v>words/missile_US.wav</v>
       </c>
-    </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E233" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B234" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C234" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D234" t="str">
         <f t="shared" si="9"/>
         <v>words/basket_US.wav</v>
       </c>
-    </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E234" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B235" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C235" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D235" t="str">
         <f t="shared" si="9"/>
         <v>words/museum_US.wav</v>
       </c>
-    </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E235" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B236" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C236" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D236" t="str">
         <f t="shared" si="9"/>
         <v>words/palace_US.wav</v>
       </c>
-    </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E236" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B237" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C237" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D237" t="str">
         <f t="shared" si="9"/>
         <v>words/diamond_US.wav</v>
       </c>
-    </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E237" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B238" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C238" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D238" t="str">
         <f t="shared" si="9"/>
         <v>words/butter_US.wav</v>
       </c>
-    </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E238" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B239" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C239" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D239" t="str">
         <f t="shared" si="9"/>
         <v>words/wallet_US.wav</v>
       </c>
-    </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E239" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B240" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C240" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D240" t="str">
         <f t="shared" si="9"/>
         <v>words/garage_US.wav</v>
       </c>
-    </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E240" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B241" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C241" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D241" t="str">
         <f t="shared" si="9"/>
         <v>words/pizza_US.wav</v>
       </c>
-    </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E241" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
         <v>3</v>
       </c>
       <c r="B242" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C242" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D242" t="str">
         <f>_xlfn.CONCAT("words/",A242,"_TR.wav")</f>
         <v>words/shellfish_TR.wav</v>
       </c>
-    </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E242" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
         <v>4</v>
       </c>
       <c r="B243" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C243" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D243" t="str">
         <f t="shared" ref="D243:D300" si="10">_xlfn.CONCAT("words/",A243,"_TR.wav")</f>
         <v>words/bloodhound_TR.wav</v>
       </c>
-    </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E243" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
         <v>5</v>
       </c>
       <c r="B244" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C244" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D244" t="str">
         <f t="shared" si="10"/>
         <v>words/antelope_TR.wav</v>
       </c>
-    </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E244" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
         <v>6</v>
       </c>
       <c r="B245" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C245" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D245" t="str">
         <f t="shared" si="10"/>
         <v>words/woodpecker_TR.wav</v>
       </c>
-    </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E245" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
         <v>7</v>
       </c>
       <c r="B246" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C246" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D246" t="str">
         <f t="shared" si="10"/>
         <v>words/swordfish_TR.wav</v>
       </c>
-    </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E246" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="247" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
         <v>8</v>
       </c>
       <c r="B247" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C247" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D247" t="str">
         <f t="shared" si="10"/>
         <v>words/walrus_TR.wav</v>
       </c>
-    </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E247" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="248" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
         <v>9</v>
       </c>
       <c r="B248" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C248" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D248" t="str">
         <f t="shared" si="10"/>
         <v>words/tortoise_TR.wav</v>
       </c>
-    </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E248" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
         <v>10</v>
       </c>
       <c r="B249" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C249" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D249" t="str">
         <f t="shared" si="10"/>
         <v>words/caterpillar_TR.wav</v>
       </c>
-    </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E249" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="250" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
         <v>11</v>
       </c>
       <c r="B250" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C250" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D250" t="str">
         <f t="shared" si="10"/>
         <v>words/piranha_TR.wav</v>
       </c>
-    </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E250" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="251" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
         <v>12</v>
       </c>
       <c r="B251" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C251" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D251" t="str">
         <f t="shared" si="10"/>
         <v>words/chimpanzee_TR.wav</v>
       </c>
-    </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E251" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="252" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
         <v>13</v>
       </c>
       <c r="B252" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C252" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D252" t="str">
         <f t="shared" si="10"/>
         <v>words/gazelle_TR.wav</v>
       </c>
-    </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E252" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="253" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
         <v>14</v>
       </c>
       <c r="B253" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C253" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D253" t="str">
         <f t="shared" si="10"/>
         <v>words/seagull_TR.wav</v>
       </c>
-    </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E253" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="254" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
         <v>15</v>
       </c>
       <c r="B254" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C254" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D254" t="str">
         <f t="shared" si="10"/>
         <v>words/catfish_TR.wav</v>
       </c>
-    </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E254" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="255" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
         <v>16</v>
       </c>
       <c r="B255" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C255" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D255" t="str">
         <f t="shared" si="10"/>
         <v>words/critter_TR.wav</v>
       </c>
-    </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E255" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="256" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
         <v>17</v>
       </c>
       <c r="B256" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C256" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D256" t="str">
         <f t="shared" si="10"/>
         <v>words/giraffe_TR.wav</v>
       </c>
-    </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E256" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="257" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
         <v>18</v>
       </c>
       <c r="B257" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C257" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D257" t="str">
         <f t="shared" si="10"/>
         <v>words/ferret_TR.wav</v>
       </c>
-    </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E257" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="258" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
         <v>19</v>
       </c>
       <c r="B258" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C258" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D258" t="str">
         <f t="shared" si="10"/>
         <v>words/rattlesnake_TR.wav</v>
       </c>
-    </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E258" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="259" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
         <v>20</v>
       </c>
       <c r="B259" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C259" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D259" t="str">
         <f t="shared" si="10"/>
         <v>words/octopus_TR.wav</v>
       </c>
-    </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E259" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="260" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
         <v>21</v>
       </c>
       <c r="B260" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C260" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D260" t="str">
         <f t="shared" si="10"/>
         <v>words/livestock_TR.wav</v>
       </c>
-    </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E260" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="261" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
         <v>22</v>
       </c>
       <c r="B261" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C261" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D261" t="str">
         <f t="shared" si="10"/>
         <v>words/beetle_TR.wav</v>
       </c>
-    </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E261" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="262" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
         <v>23</v>
       </c>
       <c r="B262" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C262" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D262" t="str">
         <f t="shared" si="10"/>
         <v>words/possum_TR.wav</v>
       </c>
-    </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E262" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="263" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
         <v>24</v>
       </c>
       <c r="B263" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C263" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D263" t="str">
         <f t="shared" si="10"/>
         <v>words/rhino_TR.wav</v>
       </c>
-    </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E263" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="264" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
         <v>25</v>
       </c>
       <c r="B264" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C264" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D264" t="str">
         <f t="shared" si="10"/>
         <v>words/panda_TR.wav</v>
       </c>
-    </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E264" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="265" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
         <v>26</v>
       </c>
       <c r="B265" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C265" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D265" t="str">
         <f t="shared" si="10"/>
         <v>words/hamster_TR.wav</v>
       </c>
-    </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E265" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="266" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
         <v>27</v>
       </c>
       <c r="B266" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C266" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D266" t="str">
         <f t="shared" si="10"/>
         <v>words/crocodile_TR.wav</v>
       </c>
-    </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E266" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="267" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
         <v>28</v>
       </c>
       <c r="B267" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C267" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D267" t="str">
         <f t="shared" si="10"/>
         <v>words/kangaroo_TR.wav</v>
       </c>
-    </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E267" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="268" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
         <v>29</v>
       </c>
       <c r="B268" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C268" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D268" t="str">
         <f t="shared" si="10"/>
         <v>words/corral_TR.wav</v>
       </c>
-    </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E268" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="269" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
         <v>30</v>
       </c>
       <c r="B269" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C269" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D269" t="str">
         <f t="shared" si="10"/>
         <v>words/parasite_TR.wav</v>
       </c>
-    </row>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E269" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="270" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
         <v>31</v>
       </c>
       <c r="B270" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C270" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D270" t="str">
         <f t="shared" si="10"/>
         <v>words/zebra_TR.wav</v>
       </c>
-    </row>
-    <row r="271" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E270" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="271" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
         <v>32</v>
       </c>
       <c r="B271" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C271" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D271" t="str">
         <f t="shared" si="10"/>
         <v>words/predator_TR.wav</v>
       </c>
-    </row>
-    <row r="272" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E271" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="272" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
         <v>33</v>
       </c>
       <c r="B272" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C272" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D272" t="str">
         <f t="shared" si="10"/>
         <v>words/scorpion_TR.wav</v>
       </c>
-    </row>
-    <row r="273" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E272" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="273" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
         <v>34</v>
       </c>
       <c r="B273" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C273" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D273" t="str">
         <f t="shared" si="10"/>
         <v>words/dolphin_TR.wav</v>
       </c>
-    </row>
-    <row r="274" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E273" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="274" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
         <v>35</v>
       </c>
       <c r="B274" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C274" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D274" t="str">
         <f t="shared" si="10"/>
         <v>words/cricket_TR.wav</v>
       </c>
-    </row>
-    <row r="275" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E274" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="275" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
         <v>36</v>
       </c>
       <c r="B275" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C275" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D275" t="str">
         <f t="shared" si="10"/>
         <v>words/penguin_TR.wav</v>
       </c>
-    </row>
-    <row r="276" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E275" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="276" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
         <v>37</v>
       </c>
       <c r="B276" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C276" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D276" t="str">
         <f t="shared" si="10"/>
         <v>words/cuckoo_TR.wav</v>
       </c>
-    </row>
-    <row r="277" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E276" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="277" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
-        <v>38</v>
+        <v>125</v>
       </c>
       <c r="B277" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C277" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D277" t="str">
         <f t="shared" si="10"/>
-        <v>words/fiancee_TR.wav</v>
-      </c>
-    </row>
-    <row r="278" spans="1:4" x14ac:dyDescent="0.2">
+        <v>words/fiance_TR.wav</v>
+      </c>
+      <c r="E277" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="278" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B278" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C278" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D278" t="str">
         <f t="shared" si="10"/>
         <v>words/bacteria_TR.wav</v>
       </c>
-    </row>
-    <row r="279" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E278" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="279" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B279" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C279" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D279" t="str">
         <f t="shared" si="10"/>
         <v>words/goldfish_TR.wav</v>
       </c>
-    </row>
-    <row r="280" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E279" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="280" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B280" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C280" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D280" t="str">
         <f t="shared" si="10"/>
         <v>words/oyster_TR.wav</v>
       </c>
-    </row>
-    <row r="281" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E280" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="281" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B281" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C281" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D281" t="str">
         <f t="shared" si="10"/>
         <v>words/insect_TR.wav</v>
       </c>
-    </row>
-    <row r="282" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E281" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="282" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B282" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C282" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D282" t="str">
         <f t="shared" si="10"/>
         <v>words/parrot_TR.wav</v>
       </c>
-    </row>
-    <row r="283" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E282" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="283" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B283" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C283" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D283" t="str">
         <f t="shared" si="10"/>
         <v>words/reindeer_TR.wav</v>
       </c>
-    </row>
-    <row r="284" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E283" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="284" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B284" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C284" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D284" t="str">
         <f t="shared" si="10"/>
         <v>words/kitten_TR.wav</v>
       </c>
-    </row>
-    <row r="285" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E284" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="285" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B285" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C285" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D285" t="str">
         <f t="shared" si="10"/>
         <v>words/camel_TR.wav</v>
       </c>
-    </row>
-    <row r="286" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E285" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="286" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B286" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C286" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D286" t="str">
         <f t="shared" si="10"/>
         <v>words/donkey_TR.wav</v>
       </c>
-    </row>
-    <row r="287" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E286" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="287" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B287" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C287" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D287" t="str">
         <f t="shared" si="10"/>
         <v>words/butterfly_TR.wav</v>
       </c>
-    </row>
-    <row r="288" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E287" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="288" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B288" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C288" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D288" t="str">
         <f t="shared" si="10"/>
         <v>words/lion_TR.wav</v>
       </c>
-    </row>
-    <row r="289" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E288" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="289" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B289" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C289" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D289" t="str">
         <f t="shared" si="10"/>
         <v>words/salmon_TR.wav</v>
       </c>
-    </row>
-    <row r="290" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E289" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="290" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B290" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C290" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D290" t="str">
         <f t="shared" si="10"/>
         <v>words/tuna_TR.wav</v>
       </c>
-    </row>
-    <row r="291" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E290" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="291" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B291" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C291" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D291" t="str">
         <f t="shared" si="10"/>
         <v>words/spider_TR.wav</v>
       </c>
-    </row>
-    <row r="292" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E291" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="292" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B292" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C292" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D292" t="str">
         <f t="shared" si="10"/>
         <v>words/elephant_TR.wav</v>
       </c>
-    </row>
-    <row r="293" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E292" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="293" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B293" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C293" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D293" t="str">
         <f t="shared" si="10"/>
         <v>words/goose_TR.wav</v>
       </c>
-    </row>
-    <row r="294" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E293" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="294" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B294" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C294" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D294" t="str">
         <f t="shared" si="10"/>
         <v>words/tiger_TR.wav</v>
       </c>
-    </row>
-    <row r="295" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E294" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="295" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B295" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C295" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D295" t="str">
         <f t="shared" si="10"/>
         <v>words/mouse_TR.wav</v>
       </c>
-    </row>
-    <row r="296" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E295" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="296" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B296" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C296" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D296" t="str">
         <f t="shared" si="10"/>
         <v>words/rabbit_TR.wav</v>
       </c>
-    </row>
-    <row r="297" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E296" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="297" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B297" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C297" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D297" t="str">
         <f t="shared" si="10"/>
         <v>words/snake_TR.wav</v>
       </c>
-    </row>
-    <row r="298" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E297" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="298" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B298" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C298" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D298" t="str">
         <f t="shared" si="10"/>
         <v>words/turkey_TR.wav</v>
       </c>
-    </row>
-    <row r="299" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E298" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="299" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B299" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C299" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D299" t="str">
         <f t="shared" si="10"/>
         <v>words/flower_TR.wav</v>
       </c>
-    </row>
-    <row r="300" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E299" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="300" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B300" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C300" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D300" t="str">
         <f t="shared" si="10"/>
         <v>words/grandmother_TR.wav</v>
       </c>
-    </row>
-    <row r="301" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E300" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="301" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B301" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C301" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D301" t="str">
         <f t="shared" ref="D301:D359" si="11">_xlfn.CONCAT("words/",A301,"_TR.wav")</f>
         <v>words/monkey_TR.wav</v>
       </c>
-    </row>
-    <row r="302" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E301" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="302" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B302" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C302" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D302" t="str">
         <f t="shared" si="11"/>
         <v>words/musket_TR.wav</v>
       </c>
-    </row>
-    <row r="303" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E302" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="303" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B303" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C303" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D303" t="str">
         <f t="shared" si="11"/>
         <v>words/sunscreen_TR.wav</v>
       </c>
-    </row>
-    <row r="304" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E303" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="304" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B304" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C304" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D304" t="str">
         <f t="shared" si="11"/>
         <v>words/sauerkraut_TR.wav</v>
       </c>
-    </row>
-    <row r="305" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E304" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="305" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B305" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C305" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D305" t="str">
         <f t="shared" si="11"/>
         <v>words/matchbook_TR.wav</v>
       </c>
-    </row>
-    <row r="306" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E305" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="306" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B306" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C306" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D306" t="str">
         <f t="shared" si="11"/>
         <v>words/eyeliner_TR.wav</v>
       </c>
-    </row>
-    <row r="307" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E306" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="307" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B307" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C307" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D307" t="str">
         <f t="shared" si="11"/>
         <v>words/aftershave_TR.wav</v>
       </c>
-    </row>
-    <row r="308" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E307" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="308" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B308" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C308" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D308" t="str">
         <f t="shared" si="11"/>
         <v>words/corkscrew_TR.wav</v>
       </c>
-    </row>
-    <row r="309" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E308" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="309" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B309" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C309" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D309" t="str">
         <f t="shared" si="11"/>
         <v>words/airstrip_TR.wav</v>
       </c>
-    </row>
-    <row r="310" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E309" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="310" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B310" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C310" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D310" t="str">
         <f t="shared" si="11"/>
         <v>words/fragrance_TR.wav</v>
       </c>
-    </row>
-    <row r="311" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E310" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="311" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B311" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C311" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D311" t="str">
         <f t="shared" si="11"/>
         <v>words/scrapbook_TR.wav</v>
       </c>
-    </row>
-    <row r="312" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E311" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="312" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B312" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C312" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D312" t="str">
         <f t="shared" si="11"/>
         <v>words/buttermilk_TR.wav</v>
       </c>
-    </row>
-    <row r="313" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E312" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="313" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B313" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C313" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D313" t="str">
         <f t="shared" si="11"/>
         <v>words/racquetball_TR.wav</v>
       </c>
-    </row>
-    <row r="314" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E313" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="314" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B314" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C314" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D314" t="str">
         <f t="shared" si="11"/>
         <v>words/podium_TR.wav</v>
       </c>
-    </row>
-    <row r="315" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E314" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="315" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
-        <v>76</v>
+        <v>126</v>
       </c>
       <c r="B315" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C315" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D315" t="str">
         <f t="shared" si="11"/>
-        <v>words/duffel_TR.wav</v>
-      </c>
-    </row>
-    <row r="316" spans="1:4" x14ac:dyDescent="0.2">
+        <v>words/duffle_TR.wav</v>
+      </c>
+      <c r="E315" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="316" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B316" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C316" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D316" t="str">
         <f t="shared" si="11"/>
         <v>words/eggnog_TR.wav</v>
       </c>
-    </row>
-    <row r="317" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E316" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="317" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B317" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C317" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D317" t="str">
         <f t="shared" si="11"/>
         <v>words/folder_TR.wav</v>
       </c>
-    </row>
-    <row r="318" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E317" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="318" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B318" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C318" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D318" t="str">
         <f t="shared" si="11"/>
         <v>words/armour_TR.wav</v>
       </c>
-    </row>
-    <row r="319" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E318" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="319" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B319" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C319" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D319" t="str">
         <f t="shared" si="11"/>
         <v>words/syringe_TR.wav</v>
       </c>
-    </row>
-    <row r="320" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E319" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="320" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B320" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C320" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D320" t="str">
         <f t="shared" si="11"/>
         <v>words/manicure_TR.wav</v>
       </c>
-    </row>
-    <row r="321" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E320" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="321" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B321" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C321" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D321" t="str">
         <f t="shared" si="11"/>
         <v>words/washer_TR.wav</v>
       </c>
-    </row>
-    <row r="322" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E321" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="322" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A322" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B322" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C322" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D322" t="str">
         <f t="shared" si="11"/>
         <v>words/espresso_TR.wav</v>
       </c>
-    </row>
-    <row r="323" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E322" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="323" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B323" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C323" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D323" t="str">
         <f t="shared" si="11"/>
         <v>words/email_TR.wav</v>
       </c>
-    </row>
-    <row r="324" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E323" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="324" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A324" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B324" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C324" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D324" t="str">
         <f t="shared" si="11"/>
         <v>words/barbershop_TR.wav</v>
       </c>
-    </row>
-    <row r="325" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E324" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="325" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B325" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C325" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D325" t="str">
         <f t="shared" si="11"/>
         <v>words/uranium_TR.wav</v>
       </c>
-    </row>
-    <row r="326" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E325" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="326" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B326" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C326" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D326" t="str">
         <f t="shared" si="11"/>
         <v>words/softball_TR.wav</v>
       </c>
-    </row>
-    <row r="327" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E326" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="327" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B327" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C327" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D327" t="str">
         <f t="shared" si="11"/>
         <v>words/bleach_TR.wav</v>
       </c>
-    </row>
-    <row r="328" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E327" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="328" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B328" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C328" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D328" t="str">
         <f t="shared" si="11"/>
         <v>words/vocabulary_TR.wav</v>
       </c>
-    </row>
-    <row r="329" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E328" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="329" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B329" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C329" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D329" t="str">
         <f t="shared" si="11"/>
         <v>words/gadget_TR.wav</v>
       </c>
-    </row>
-    <row r="330" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E329" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="330" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B330" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C330" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D330" t="str">
         <f t="shared" si="11"/>
         <v>words/grapefruit_TR.wav</v>
       </c>
-    </row>
-    <row r="331" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E330" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="331" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B331" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C331" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D331" t="str">
         <f t="shared" si="11"/>
         <v>words/plaster_TR.wav</v>
       </c>
-    </row>
-    <row r="332" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E331" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="332" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A332" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B332" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C332" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D332" t="str">
         <f t="shared" si="11"/>
         <v>words/hydrogen_TR.wav</v>
       </c>
-    </row>
-    <row r="333" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E332" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="333" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A333" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B333" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C333" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D333" t="str">
         <f t="shared" si="11"/>
         <v>words/aquarium_TR.wav</v>
       </c>
-    </row>
-    <row r="334" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E333" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="334" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A334" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B334" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C334" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D334" t="str">
         <f t="shared" si="11"/>
         <v>words/boiler_TR.wav</v>
       </c>
-    </row>
-    <row r="335" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E334" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="335" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A335" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B335" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C335" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D335" t="str">
         <f t="shared" si="11"/>
         <v>words/pager_TR.wav</v>
       </c>
-    </row>
-    <row r="336" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E335" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="336" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A336" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B336" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C336" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D336" t="str">
         <f t="shared" si="11"/>
         <v>words/jewellery_TR.wav</v>
       </c>
-    </row>
-    <row r="337" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E336" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="337" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A337" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B337" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C337" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D337" t="str">
         <f t="shared" si="11"/>
         <v>words/mainland_TR.wav</v>
       </c>
-    </row>
-    <row r="338" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E337" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="338" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A338" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B338" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C338" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D338" t="str">
         <f t="shared" si="11"/>
         <v>words/cinnamon_TR.wav</v>
       </c>
-    </row>
-    <row r="339" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E338" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="339" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A339" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B339" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C339" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D339" t="str">
         <f t="shared" si="11"/>
         <v>words/fiber_TR.wav</v>
       </c>
-    </row>
-    <row r="340" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E339" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="340" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A340" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B340" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C340" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D340" t="str">
         <f t="shared" si="11"/>
         <v>words/bagel_TR.wav</v>
       </c>
-    </row>
-    <row r="341" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E340" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="341" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A341" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B341" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C341" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D341" t="str">
         <f t="shared" si="11"/>
         <v>words/casket_TR.wav</v>
       </c>
-    </row>
-    <row r="342" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E341" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="342" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A342" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B342" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C342" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D342" t="str">
         <f t="shared" si="11"/>
         <v>words/telegraph_TR.wav</v>
       </c>
-    </row>
-    <row r="343" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E342" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="343" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A343" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B343" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C343" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D343" t="str">
         <f t="shared" si="11"/>
         <v>words/laptop_TR.wav</v>
       </c>
-    </row>
-    <row r="344" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E343" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="344" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A344" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B344" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C344" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D344" t="str">
         <f t="shared" si="11"/>
         <v>words/yearbook_TR.wav</v>
       </c>
-    </row>
-    <row r="345" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E344" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="345" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A345" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B345" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C345" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D345" t="str">
         <f t="shared" si="11"/>
         <v>words/toothbrush_TR.wav</v>
       </c>
-    </row>
-    <row r="346" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E345" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="346" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A346" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B346" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C346" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D346" t="str">
         <f t="shared" si="11"/>
         <v>words/playground_TR.wav</v>
       </c>
-    </row>
-    <row r="347" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E346" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="347" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A347" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B347" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C347" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D347" t="str">
         <f t="shared" si="11"/>
         <v>words/freezer_TR.wav</v>
       </c>
-    </row>
-    <row r="348" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E347" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="348" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A348" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B348" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C348" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D348" t="str">
         <f t="shared" si="11"/>
         <v>words/freeway_TR.wav</v>
       </c>
-    </row>
-    <row r="349" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E348" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="349" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A349" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B349" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C349" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D349" t="str">
         <f t="shared" si="11"/>
         <v>words/makeup_TR.wav</v>
       </c>
-    </row>
-    <row r="350" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E349" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="350" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A350" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B350" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C350" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D350" t="str">
         <f t="shared" si="11"/>
         <v>words/arrow_TR.wav</v>
       </c>
-    </row>
-    <row r="351" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E350" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="351" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A351" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B351" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C351" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D351" t="str">
         <f t="shared" si="11"/>
         <v>words/dynamite_TR.wav</v>
       </c>
-    </row>
-    <row r="352" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E351" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="352" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A352" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B352" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C352" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D352" t="str">
         <f t="shared" si="11"/>
         <v>words/photograph_TR.wav</v>
       </c>
-    </row>
-    <row r="353" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E352" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="353" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A353" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B353" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C353" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D353" t="str">
         <f t="shared" si="11"/>
         <v>words/missile_TR.wav</v>
       </c>
-    </row>
-    <row r="354" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E353" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="354" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A354" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B354" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C354" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D354" t="str">
         <f t="shared" si="11"/>
         <v>words/basket_TR.wav</v>
       </c>
-    </row>
-    <row r="355" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E354" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="355" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A355" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B355" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C355" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D355" t="str">
         <f t="shared" si="11"/>
         <v>words/museum_TR.wav</v>
       </c>
-    </row>
-    <row r="356" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E355" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="356" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A356" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B356" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C356" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D356" t="str">
         <f t="shared" si="11"/>
         <v>words/palace_TR.wav</v>
       </c>
-    </row>
-    <row r="357" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E356" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="357" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A357" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B357" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C357" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D357" t="str">
         <f t="shared" si="11"/>
         <v>words/diamond_TR.wav</v>
       </c>
-    </row>
-    <row r="358" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E357" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="358" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A358" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B358" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C358" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D358" t="str">
         <f t="shared" si="11"/>
         <v>words/butter_TR.wav</v>
       </c>
-    </row>
-    <row r="359" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E358" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="359" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A359" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B359" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C359" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D359" t="str">
         <f t="shared" si="11"/>
         <v>words/wallet_TR.wav</v>
       </c>
-    </row>
-    <row r="360" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E359" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="360" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A360" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B360" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C360" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D360" t="str">
         <f t="shared" ref="D360:D361" si="12">_xlfn.CONCAT("words/",A360,"_TR.wav")</f>
         <v>words/garage_TR.wav</v>
       </c>
-    </row>
-    <row r="361" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E360" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="361" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A361" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B361" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C361" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D361" t="str">
         <f t="shared" si="12"/>
         <v>words/pizza_TR.wav</v>
+      </c>
+      <c r="E361" t="s">
+        <v>132</v>
       </c>
     </row>
   </sheetData>
